--- a/server/sample/organisation.xlsx
+++ b/server/sample/organisation.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\node\hrmsProject\organization\server\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\node\hrmsProject\organization\server\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Departments" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Establishments" sheetId="4" r:id="rId4"/>
     <sheet name="Positions" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027" calcMode="manual"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="183">
   <si>
     <t>tenant</t>
   </si>
@@ -51,21 +51,12 @@
     <t>_to</t>
   </si>
   <si>
-    <t>}</t>
-  </si>
-  <si>
     <t>JSON Vertex</t>
   </si>
   <si>
     <t>JSON Edge</t>
   </si>
   <si>
-    <t>{"_from":</t>
-  </si>
-  <si>
-    <t>,"_to":</t>
-  </si>
-  <si>
     <t>_key</t>
   </si>
   <si>
@@ -385,6 +376,207 @@
   </si>
   <si>
     <t>{"_from":"department/</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Montreal</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Geographical organization</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Benelux</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>{"_from":"</t>
+  </si>
+  <si>
+    <t>","_to":"</t>
+  </si>
+  <si>
+    <t>{"_from":"location/</t>
+  </si>
+  <si>
+    <t>","_to":"location/</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>","lat":"</t>
+  </si>
+  <si>
+    <t>","lon":"</t>
+  </si>
+  <si>
+    <t>37.790067</t>
+  </si>
+  <si>
+    <t>-122.400206</t>
+  </si>
+  <si>
+    <t>40.765073</t>
+  </si>
+  <si>
+    <t>-73.991621</t>
+  </si>
+  <si>
+    <t>45.477404</t>
+  </si>
+  <si>
+    <t>-73.600688</t>
+  </si>
+  <si>
+    <t>-22.967109</t>
+  </si>
+  <si>
+    <t>-43.183220</t>
+  </si>
+  <si>
+    <t>-34.599002</t>
+  </si>
+  <si>
+    <t>-58.378038</t>
+  </si>
+  <si>
+    <t>-33.457596</t>
+  </si>
+  <si>
+    <t>-70.668850</t>
+  </si>
+  <si>
+    <t>35.696156</t>
+  </si>
+  <si>
+    <t>139.700679</t>
+  </si>
+  <si>
+    <t>30.904324</t>
+  </si>
+  <si>
+    <t>121.929099</t>
+  </si>
+  <si>
+    <t>-37.812657</t>
+  </si>
+  <si>
+    <t>144.961574</t>
+  </si>
+  <si>
+    <t>51.510131</t>
+  </si>
+  <si>
+    <t>-0.089871</t>
+  </si>
+  <si>
+    <t>48.876925</t>
+  </si>
+  <si>
+    <t>2.329944</t>
+  </si>
+  <si>
+    <t>52.343822</t>
+  </si>
+  <si>
+    <t>4.912197</t>
+  </si>
+  <si>
+    <t>53.541507</t>
+  </si>
+  <si>
+    <t>9.984987</t>
+  </si>
+  <si>
+    <t>41.895616</t>
+  </si>
+  <si>
+    <t>12.482685</t>
   </si>
 </sst>
 </file>
@@ -748,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,34 +959,34 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -802,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -823,10 +1015,10 @@
         <v>6</v>
       </c>
       <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" t="s">
         <v>8</v>
-      </c>
-      <c r="U2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -835,17 +1027,17 @@
       </c>
       <c r="B3" s="2" t="str">
         <f ca="1">CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4))</f>
-        <v>56EE4AF2-9253-24E3-74B5-31898AB930D0</v>
+        <v>CA632356-9740-76DA-5B26-44A06E87A340</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L34" ca="1" si="0">$L$1&amp;B3&amp;$M$1&amp;A3&amp;$N$1&amp;C3&amp;$O$1&amp;D3&amp;$P$1&amp;E3&amp;$Q$1&amp;F3&amp;$R$1</f>
-        <v>{"_key":"56EE4AF2-9253-24E3-74B5-31898AB930D0","tenant":"1","name":"CEO\'s office","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"CA632356-9740-76DA-5B26-44A06E87A340","tenant":"1","name":"CEO\'s office","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U3" t="str">
-        <f>$U$1&amp;G3&amp;$V$1&amp;H3&amp;$W$1</f>
+        <f t="shared" ref="U3:U34" si="1">$U$1&amp;G3&amp;$V$1&amp;H3&amp;$W$1</f>
         <v>{"_from":"department/","_to":"department/"}</v>
       </c>
     </row>
@@ -854,27 +1046,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f t="shared" ref="B4:B67" ca="1" si="1">CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4))</f>
-        <v>E9124AE0-8C2F-861A-2BB0-3CA1FC1E6492</v>
+        <f t="shared" ref="B4:B67" ca="1" si="2">CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4))</f>
+        <v>97694CC3-1097-160E-436C-9F4E3C267C12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" t="str">
         <f ca="1">B4</f>
-        <v>E9124AE0-8C2F-861A-2BB0-3CA1FC1E6492</v>
+        <v>97694CC3-1097-160E-436C-9F4E3C267C12</v>
       </c>
       <c r="H4" t="str">
         <f ca="1">B3</f>
-        <v>56EE4AF2-9253-24E3-74B5-31898AB930D0</v>
+        <v>CA632356-9740-76DA-5B26-44A06E87A340</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"E9124AE0-8C2F-861A-2BB0-3CA1FC1E6492","tenant":"1","name":"Legal Global Business Unit","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"97694CC3-1097-160E-436C-9F4E3C267C12","tenant":"1","name":"Legal Global Business Unit","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U4" t="str">
-        <f ca="1">$U$1&amp;G4&amp;$V$1&amp;H4&amp;$W$1</f>
-        <v>{"_from":"department/E9124AE0-8C2F-861A-2BB0-3CA1FC1E6492","_to":"department/56EE4AF2-9253-24E3-74B5-31898AB930D0"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/97694CC3-1097-160E-436C-9F4E3C267C12","_to":"department/CA632356-9740-76DA-5B26-44A06E87A340"}</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -882,27 +1074,27 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3A1BC41F-1496-734E-8444-C13DFFC03340</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0E25CAD4-2822-32A3-38EC-FB7204883DC2</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5" t="str">
         <f ca="1">B5</f>
-        <v>3A1BC41F-1496-734E-8444-C13DFFC03340</v>
+        <v>0E25CAD4-2822-32A3-38EC-FB7204883DC2</v>
       </c>
       <c r="H5" t="str">
         <f ca="1">B4</f>
-        <v>E9124AE0-8C2F-861A-2BB0-3CA1FC1E6492</v>
+        <v>97694CC3-1097-160E-436C-9F4E3C267C12</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"3A1BC41F-1496-734E-8444-C13DFFC03340","tenant":"1","name":"Legal EMEA","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"0E25CAD4-2822-32A3-38EC-FB7204883DC2","tenant":"1","name":"Legal EMEA","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U5" t="str">
-        <f ca="1">$U$1&amp;G5&amp;$V$1&amp;H5&amp;$W$1</f>
-        <v>{"_from":"department/3A1BC41F-1496-734E-8444-C13DFFC03340","_to":"department/E9124AE0-8C2F-861A-2BB0-3CA1FC1E6492"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/0E25CAD4-2822-32A3-38EC-FB7204883DC2","_to":"department/97694CC3-1097-160E-436C-9F4E3C267C12"}</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -910,27 +1102,27 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>04C7ED05-00CB-3DC7-761C-5E80ADA92D50</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2F7C6F43-31CC-4A7E-3E08-97AD25026ADB</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:G69" ca="1" si="2">B6</f>
-        <v>04C7ED05-00CB-3DC7-761C-5E80ADA92D50</v>
+        <f t="shared" ref="G6:G69" ca="1" si="3">B6</f>
+        <v>2F7C6F43-31CC-4A7E-3E08-97AD25026ADB</v>
       </c>
       <c r="H6" t="str">
         <f ca="1">B5</f>
-        <v>3A1BC41F-1496-734E-8444-C13DFFC03340</v>
+        <v>0E25CAD4-2822-32A3-38EC-FB7204883DC2</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"04C7ED05-00CB-3DC7-761C-5E80ADA92D50","tenant":"1","name":"Legal UK","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"2F7C6F43-31CC-4A7E-3E08-97AD25026ADB","tenant":"1","name":"Legal UK","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U6" t="str">
-        <f ca="1">$U$1&amp;G6&amp;$V$1&amp;H6&amp;$W$1</f>
-        <v>{"_from":"department/04C7ED05-00CB-3DC7-761C-5E80ADA92D50","_to":"department/3A1BC41F-1496-734E-8444-C13DFFC03340"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/2F7C6F43-31CC-4A7E-3E08-97AD25026ADB","_to":"department/0E25CAD4-2822-32A3-38EC-FB7204883DC2"}</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -938,27 +1130,27 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>5F7B7EC3-6B40-803A-9827-49ED8ABC0E7B</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30358A27-5DC5-696F-9DB2-DA08B93BA489</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>5F7B7EC3-6B40-803A-9827-49ED8ABC0E7B</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30358A27-5DC5-696F-9DB2-DA08B93BA489</v>
       </c>
       <c r="H7" t="str">
         <f ca="1">B5</f>
-        <v>3A1BC41F-1496-734E-8444-C13DFFC03340</v>
+        <v>0E25CAD4-2822-32A3-38EC-FB7204883DC2</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"5F7B7EC3-6B40-803A-9827-49ED8ABC0E7B","tenant":"1","name":"Legal France","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"30358A27-5DC5-696F-9DB2-DA08B93BA489","tenant":"1","name":"Legal France","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U7" t="str">
-        <f ca="1">$U$1&amp;G7&amp;$V$1&amp;H7&amp;$W$1</f>
-        <v>{"_from":"department/5F7B7EC3-6B40-803A-9827-49ED8ABC0E7B","_to":"department/3A1BC41F-1496-734E-8444-C13DFFC03340"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/30358A27-5DC5-696F-9DB2-DA08B93BA489","_to":"department/0E25CAD4-2822-32A3-38EC-FB7204883DC2"}</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -966,27 +1158,27 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>AE698E29-1A88-4765-7A3F-728B843331FB</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>85FD37B3-9F2F-0443-96A8-611F04401811</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>AE698E29-1A88-4765-7A3F-728B843331FB</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>85FD37B3-9F2F-0443-96A8-611F04401811</v>
       </c>
       <c r="H8" t="str">
         <f ca="1">B5</f>
-        <v>3A1BC41F-1496-734E-8444-C13DFFC03340</v>
+        <v>0E25CAD4-2822-32A3-38EC-FB7204883DC2</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"AE698E29-1A88-4765-7A3F-728B843331FB","tenant":"1","name":"Legal Benelux","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"85FD37B3-9F2F-0443-96A8-611F04401811","tenant":"1","name":"Legal Benelux","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U8" t="str">
-        <f ca="1">$U$1&amp;G8&amp;$V$1&amp;H8&amp;$W$1</f>
-        <v>{"_from":"department/AE698E29-1A88-4765-7A3F-728B843331FB","_to":"department/3A1BC41F-1496-734E-8444-C13DFFC03340"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/85FD37B3-9F2F-0443-96A8-611F04401811","_to":"department/0E25CAD4-2822-32A3-38EC-FB7204883DC2"}</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -994,27 +1186,27 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3C3823EF-41F0-791D-A1C2-EE89EDC41DB2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>84CA1E5C-A178-A748-5E0E-668ED3A324A7</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>3C3823EF-41F0-791D-A1C2-EE89EDC41DB2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>84CA1E5C-A178-A748-5E0E-668ED3A324A7</v>
       </c>
       <c r="H9" t="str">
         <f ca="1">B5</f>
-        <v>3A1BC41F-1496-734E-8444-C13DFFC03340</v>
+        <v>0E25CAD4-2822-32A3-38EC-FB7204883DC2</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"3C3823EF-41F0-791D-A1C2-EE89EDC41DB2","tenant":"1","name":"Legal Germany","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"84CA1E5C-A178-A748-5E0E-668ED3A324A7","tenant":"1","name":"Legal Germany","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U9" t="str">
-        <f ca="1">$U$1&amp;G9&amp;$V$1&amp;H9&amp;$W$1</f>
-        <v>{"_from":"department/3C3823EF-41F0-791D-A1C2-EE89EDC41DB2","_to":"department/3A1BC41F-1496-734E-8444-C13DFFC03340"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/84CA1E5C-A178-A748-5E0E-668ED3A324A7","_to":"department/0E25CAD4-2822-32A3-38EC-FB7204883DC2"}</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1022,27 +1214,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>5AEDF4C6-5C4B-A72A-0F32-13F9D4748137</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8C3B6C08-6E6A-5BA7-633F-B36B7F131AE9</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>5AEDF4C6-5C4B-A72A-0F32-13F9D4748137</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8C3B6C08-6E6A-5BA7-633F-B36B7F131AE9</v>
       </c>
       <c r="H10" t="str">
         <f ca="1">B5</f>
-        <v>3A1BC41F-1496-734E-8444-C13DFFC03340</v>
+        <v>0E25CAD4-2822-32A3-38EC-FB7204883DC2</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"5AEDF4C6-5C4B-A72A-0F32-13F9D4748137","tenant":"1","name":"Legal Italy","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"8C3B6C08-6E6A-5BA7-633F-B36B7F131AE9","tenant":"1","name":"Legal Italy","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U10" t="str">
-        <f ca="1">$U$1&amp;G10&amp;$V$1&amp;H10&amp;$W$1</f>
-        <v>{"_from":"department/5AEDF4C6-5C4B-A72A-0F32-13F9D4748137","_to":"department/3A1BC41F-1496-734E-8444-C13DFFC03340"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/8C3B6C08-6E6A-5BA7-633F-B36B7F131AE9","_to":"department/0E25CAD4-2822-32A3-38EC-FB7204883DC2"}</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1050,27 +1242,27 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C82ED431-8B0F-778A-3F85-9D01E612288C</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>B81741DF-2372-513F-0182-55FACEA35DAC</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>C82ED431-8B0F-778A-3F85-9D01E612288C</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>B81741DF-2372-513F-0182-55FACEA35DAC</v>
       </c>
       <c r="H11" t="str">
         <f ca="1">B4</f>
-        <v>E9124AE0-8C2F-861A-2BB0-3CA1FC1E6492</v>
+        <v>97694CC3-1097-160E-436C-9F4E3C267C12</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"C82ED431-8B0F-778A-3F85-9D01E612288C","tenant":"1","name":"Legal JAPAC","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"B81741DF-2372-513F-0182-55FACEA35DAC","tenant":"1","name":"Legal JAPAC","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U11" t="str">
-        <f ca="1">$U$1&amp;G11&amp;$V$1&amp;H11&amp;$W$1</f>
-        <v>{"_from":"department/C82ED431-8B0F-778A-3F85-9D01E612288C","_to":"department/E9124AE0-8C2F-861A-2BB0-3CA1FC1E6492"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/B81741DF-2372-513F-0182-55FACEA35DAC","_to":"department/97694CC3-1097-160E-436C-9F4E3C267C12"}</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1078,27 +1270,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>E4759CFF-056E-64ED-20F7-1043B79393FD</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8E889BDC-82A2-2D5E-992D-535D7F8D809B</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>E4759CFF-056E-64ED-20F7-1043B79393FD</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8E889BDC-82A2-2D5E-992D-535D7F8D809B</v>
       </c>
       <c r="H12" t="str">
         <f ca="1">B11</f>
-        <v>C82ED431-8B0F-778A-3F85-9D01E612288C</v>
+        <v>B81741DF-2372-513F-0182-55FACEA35DAC</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"E4759CFF-056E-64ED-20F7-1043B79393FD","tenant":"1","name":"Legal Japan","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"8E889BDC-82A2-2D5E-992D-535D7F8D809B","tenant":"1","name":"Legal Japan","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U12" t="str">
-        <f ca="1">$U$1&amp;G12&amp;$V$1&amp;H12&amp;$W$1</f>
-        <v>{"_from":"department/E4759CFF-056E-64ED-20F7-1043B79393FD","_to":"department/C82ED431-8B0F-778A-3F85-9D01E612288C"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/8E889BDC-82A2-2D5E-992D-535D7F8D809B","_to":"department/B81741DF-2372-513F-0182-55FACEA35DAC"}</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -1106,27 +1298,27 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>B2252A3E-8305-3B36-2E64-5FE151D92B37</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>56201F53-70C2-4D2D-2438-B0095F285793</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>B2252A3E-8305-3B36-2E64-5FE151D92B37</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>56201F53-70C2-4D2D-2438-B0095F285793</v>
       </c>
       <c r="H13" t="str">
         <f ca="1">B11</f>
-        <v>C82ED431-8B0F-778A-3F85-9D01E612288C</v>
+        <v>B81741DF-2372-513F-0182-55FACEA35DAC</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"B2252A3E-8305-3B36-2E64-5FE151D92B37","tenant":"1","name":"Legal China","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"56201F53-70C2-4D2D-2438-B0095F285793","tenant":"1","name":"Legal China","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U13" t="str">
-        <f ca="1">$U$1&amp;G13&amp;$V$1&amp;H13&amp;$W$1</f>
-        <v>{"_from":"department/B2252A3E-8305-3B36-2E64-5FE151D92B37","_to":"department/C82ED431-8B0F-778A-3F85-9D01E612288C"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/56201F53-70C2-4D2D-2438-B0095F285793","_to":"department/B81741DF-2372-513F-0182-55FACEA35DAC"}</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1134,27 +1326,27 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>B9526254-7D3F-2F53-73AE-5055AAD3A797</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5297CA76-73E9-488D-3941-CF52EDDB076F</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>B9526254-7D3F-2F53-73AE-5055AAD3A797</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5297CA76-73E9-488D-3941-CF52EDDB076F</v>
       </c>
       <c r="H14" t="str">
         <f ca="1">B11</f>
-        <v>C82ED431-8B0F-778A-3F85-9D01E612288C</v>
+        <v>B81741DF-2372-513F-0182-55FACEA35DAC</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"B9526254-7D3F-2F53-73AE-5055AAD3A797","tenant":"1","name":"Legal Australia","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"5297CA76-73E9-488D-3941-CF52EDDB076F","tenant":"1","name":"Legal Australia","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U14" t="str">
-        <f ca="1">$U$1&amp;G14&amp;$V$1&amp;H14&amp;$W$1</f>
-        <v>{"_from":"department/B9526254-7D3F-2F53-73AE-5055AAD3A797","_to":"department/C82ED431-8B0F-778A-3F85-9D01E612288C"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/5297CA76-73E9-488D-3941-CF52EDDB076F","_to":"department/B81741DF-2372-513F-0182-55FACEA35DAC"}</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -1162,27 +1354,27 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FADBBD4D-4B03-2C61-0ABB-9A5CE006035F</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>F1AD4948-0073-5406-6919-D07BD7735761</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>FADBBD4D-4B03-2C61-0ABB-9A5CE006035F</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>F1AD4948-0073-5406-6919-D07BD7735761</v>
       </c>
       <c r="H15" t="str">
         <f ca="1">B4</f>
-        <v>E9124AE0-8C2F-861A-2BB0-3CA1FC1E6492</v>
+        <v>97694CC3-1097-160E-436C-9F4E3C267C12</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"FADBBD4D-4B03-2C61-0ABB-9A5CE006035F","tenant":"1","name":"Legal North America","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"F1AD4948-0073-5406-6919-D07BD7735761","tenant":"1","name":"Legal North America","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U15" t="str">
-        <f ca="1">$U$1&amp;G15&amp;$V$1&amp;H15&amp;$W$1</f>
-        <v>{"_from":"department/FADBBD4D-4B03-2C61-0ABB-9A5CE006035F","_to":"department/E9124AE0-8C2F-861A-2BB0-3CA1FC1E6492"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/F1AD4948-0073-5406-6919-D07BD7735761","_to":"department/97694CC3-1097-160E-436C-9F4E3C267C12"}</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1190,27 +1382,27 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>4EF91ED5-45B5-2EC4-55FF-CBC319388446</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>B36B69DD-7B33-6E17-5640-737305EC3612</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>4EF91ED5-45B5-2EC4-55FF-CBC319388446</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>B36B69DD-7B33-6E17-5640-737305EC3612</v>
       </c>
       <c r="H16" t="str">
         <f ca="1">B15</f>
-        <v>FADBBD4D-4B03-2C61-0ABB-9A5CE006035F</v>
+        <v>F1AD4948-0073-5406-6919-D07BD7735761</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"4EF91ED5-45B5-2EC4-55FF-CBC319388446","tenant":"1","name":"Legal USA","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"B36B69DD-7B33-6E17-5640-737305EC3612","tenant":"1","name":"Legal USA","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U16" t="str">
-        <f ca="1">$U$1&amp;G16&amp;$V$1&amp;H16&amp;$W$1</f>
-        <v>{"_from":"department/4EF91ED5-45B5-2EC4-55FF-CBC319388446","_to":"department/FADBBD4D-4B03-2C61-0ABB-9A5CE006035F"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/B36B69DD-7B33-6E17-5640-737305EC3612","_to":"department/F1AD4948-0073-5406-6919-D07BD7735761"}</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -1218,27 +1410,27 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F0ACA9D3-A36B-5584-5993-6D6065F94EA7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1CED2BE2-5D66-3B44-2D89-3B2B6C877E8E</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>F0ACA9D3-A36B-5584-5993-6D6065F94EA7</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1CED2BE2-5D66-3B44-2D89-3B2B6C877E8E</v>
       </c>
       <c r="H17" t="str">
         <f ca="1">B15</f>
-        <v>FADBBD4D-4B03-2C61-0ABB-9A5CE006035F</v>
+        <v>F1AD4948-0073-5406-6919-D07BD7735761</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"F0ACA9D3-A36B-5584-5993-6D6065F94EA7","tenant":"1","name":"Legal Canada","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"1CED2BE2-5D66-3B44-2D89-3B2B6C877E8E","tenant":"1","name":"Legal Canada","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U17" t="str">
-        <f ca="1">$U$1&amp;G17&amp;$V$1&amp;H17&amp;$W$1</f>
-        <v>{"_from":"department/F0ACA9D3-A36B-5584-5993-6D6065F94EA7","_to":"department/FADBBD4D-4B03-2C61-0ABB-9A5CE006035F"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/1CED2BE2-5D66-3B44-2D89-3B2B6C877E8E","_to":"department/F1AD4948-0073-5406-6919-D07BD7735761"}</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -1246,27 +1438,27 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>BBA5B74E-75E4-0515-385F-FBE940036E7F</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>B1C1D5AC-4645-8FD7-9911-51B0D6E37148</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>BBA5B74E-75E4-0515-385F-FBE940036E7F</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>B1C1D5AC-4645-8FD7-9911-51B0D6E37148</v>
       </c>
       <c r="H18" t="str">
         <f ca="1">B4</f>
-        <v>E9124AE0-8C2F-861A-2BB0-3CA1FC1E6492</v>
+        <v>97694CC3-1097-160E-436C-9F4E3C267C12</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"BBA5B74E-75E4-0515-385F-FBE940036E7F","tenant":"1","name":"Legal South America","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"B1C1D5AC-4645-8FD7-9911-51B0D6E37148","tenant":"1","name":"Legal South America","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U18" t="str">
-        <f ca="1">$U$1&amp;G18&amp;$V$1&amp;H18&amp;$W$1</f>
-        <v>{"_from":"department/BBA5B74E-75E4-0515-385F-FBE940036E7F","_to":"department/E9124AE0-8C2F-861A-2BB0-3CA1FC1E6492"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/B1C1D5AC-4645-8FD7-9911-51B0D6E37148","_to":"department/97694CC3-1097-160E-436C-9F4E3C267C12"}</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -1274,27 +1466,27 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>BB31B01D-4D5E-840C-2DDC-1DBD98750CE6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2F55A9E4-1A48-49A3-8904-D7D042C272CE</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>BB31B01D-4D5E-840C-2DDC-1DBD98750CE6</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2F55A9E4-1A48-49A3-8904-D7D042C272CE</v>
       </c>
       <c r="H19" t="str">
         <f ca="1">B18</f>
-        <v>BBA5B74E-75E4-0515-385F-FBE940036E7F</v>
+        <v>B1C1D5AC-4645-8FD7-9911-51B0D6E37148</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"BB31B01D-4D5E-840C-2DDC-1DBD98750CE6","tenant":"1","name":"Legal Brazil","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"2F55A9E4-1A48-49A3-8904-D7D042C272CE","tenant":"1","name":"Legal Brazil","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U19" t="str">
-        <f ca="1">$U$1&amp;G19&amp;$V$1&amp;H19&amp;$W$1</f>
-        <v>{"_from":"department/BB31B01D-4D5E-840C-2DDC-1DBD98750CE6","_to":"department/BBA5B74E-75E4-0515-385F-FBE940036E7F"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/2F55A9E4-1A48-49A3-8904-D7D042C272CE","_to":"department/B1C1D5AC-4645-8FD7-9911-51B0D6E37148"}</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -1302,27 +1494,27 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>D3BC3F93-1C07-0E77-430F-1541BA7F3E10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>961F7167-2702-4743-384C-827C4B7990B3</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>D3BC3F93-1C07-0E77-430F-1541BA7F3E10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>961F7167-2702-4743-384C-827C4B7990B3</v>
       </c>
       <c r="H20" t="str">
         <f ca="1">B18</f>
-        <v>BBA5B74E-75E4-0515-385F-FBE940036E7F</v>
+        <v>B1C1D5AC-4645-8FD7-9911-51B0D6E37148</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"D3BC3F93-1C07-0E77-430F-1541BA7F3E10","tenant":"1","name":"Legal Chile","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"961F7167-2702-4743-384C-827C4B7990B3","tenant":"1","name":"Legal Chile","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U20" t="str">
-        <f ca="1">$U$1&amp;G20&amp;$V$1&amp;H20&amp;$W$1</f>
-        <v>{"_from":"department/D3BC3F93-1C07-0E77-430F-1541BA7F3E10","_to":"department/BBA5B74E-75E4-0515-385F-FBE940036E7F"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/961F7167-2702-4743-384C-827C4B7990B3","_to":"department/B1C1D5AC-4645-8FD7-9911-51B0D6E37148"}</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -1330,27 +1522,27 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>DC7DB9E2-904F-4ACA-61D2-09156D3D4CB7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>86D60651-97A6-00CB-6F61-3CC48E296ED4</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DC7DB9E2-904F-4ACA-61D2-09156D3D4CB7</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>86D60651-97A6-00CB-6F61-3CC48E296ED4</v>
       </c>
       <c r="H21" t="str">
         <f ca="1">B18</f>
-        <v>BBA5B74E-75E4-0515-385F-FBE940036E7F</v>
+        <v>B1C1D5AC-4645-8FD7-9911-51B0D6E37148</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"DC7DB9E2-904F-4ACA-61D2-09156D3D4CB7","tenant":"1","name":"Legal Argentina","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"86D60651-97A6-00CB-6F61-3CC48E296ED4","tenant":"1","name":"Legal Argentina","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U21" t="str">
-        <f ca="1">$U$1&amp;G21&amp;$V$1&amp;H21&amp;$W$1</f>
-        <v>{"_from":"department/DC7DB9E2-904F-4ACA-61D2-09156D3D4CB7","_to":"department/BBA5B74E-75E4-0515-385F-FBE940036E7F"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/86D60651-97A6-00CB-6F61-3CC48E296ED4","_to":"department/B1C1D5AC-4645-8FD7-9911-51B0D6E37148"}</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -1358,27 +1550,27 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>E351EDE5-01D5-3DBF-9EBE-5C9C8C6A5710</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>AFB34FB8-1758-6895-8E42-0CEEC00821D5</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>E351EDE5-01D5-3DBF-9EBE-5C9C8C6A5710</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AFB34FB8-1758-6895-8E42-0CEEC00821D5</v>
       </c>
       <c r="H22" t="str">
         <f ca="1">B3</f>
-        <v>56EE4AF2-9253-24E3-74B5-31898AB930D0</v>
+        <v>CA632356-9740-76DA-5B26-44A06E87A340</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"E351EDE5-01D5-3DBF-9EBE-5C9C8C6A5710","tenant":"1","name":"Sales &amp; Marketing Global Business Unit","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"AFB34FB8-1758-6895-8E42-0CEEC00821D5","tenant":"1","name":"Sales &amp; Marketing Global Business Unit","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U22" t="str">
-        <f ca="1">$U$1&amp;G22&amp;$V$1&amp;H22&amp;$W$1</f>
-        <v>{"_from":"department/E351EDE5-01D5-3DBF-9EBE-5C9C8C6A5710","_to":"department/56EE4AF2-9253-24E3-74B5-31898AB930D0"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/AFB34FB8-1758-6895-8E42-0CEEC00821D5","_to":"department/CA632356-9740-76DA-5B26-44A06E87A340"}</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -1386,27 +1578,27 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>933A82F6-3BFD-2818-563C-CA1E0D4F6854</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>F3EE4409-A00B-71B9-4EE6-1B5D90EC3EE3</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>933A82F6-3BFD-2818-563C-CA1E0D4F6854</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>F3EE4409-A00B-71B9-4EE6-1B5D90EC3EE3</v>
       </c>
       <c r="H23" t="str">
         <f ca="1">B22</f>
-        <v>E351EDE5-01D5-3DBF-9EBE-5C9C8C6A5710</v>
+        <v>AFB34FB8-1758-6895-8E42-0CEEC00821D5</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"933A82F6-3BFD-2818-563C-CA1E0D4F6854","tenant":"1","name":"Sales Global Consumer Products","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"F3EE4409-A00B-71B9-4EE6-1B5D90EC3EE3","tenant":"1","name":"Sales Global Consumer Products","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U23" t="str">
-        <f ca="1">$U$1&amp;G23&amp;$V$1&amp;H23&amp;$W$1</f>
-        <v>{"_from":"department/933A82F6-3BFD-2818-563C-CA1E0D4F6854","_to":"department/E351EDE5-01D5-3DBF-9EBE-5C9C8C6A5710"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/F3EE4409-A00B-71B9-4EE6-1B5D90EC3EE3","_to":"department/AFB34FB8-1758-6895-8E42-0CEEC00821D5"}</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -1414,27 +1606,27 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>67C4EC64-7D36-7C26-8E58-94714A4B89D2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4F4B5DE0-6DB3-207D-A79C-BA1E083140F6</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>67C4EC64-7D36-7C26-8E58-94714A4B89D2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4F4B5DE0-6DB3-207D-A79C-BA1E083140F6</v>
       </c>
       <c r="H24" t="str">
         <f ca="1">B22</f>
-        <v>E351EDE5-01D5-3DBF-9EBE-5C9C8C6A5710</v>
+        <v>AFB34FB8-1758-6895-8E42-0CEEC00821D5</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"67C4EC64-7D36-7C26-8E58-94714A4B89D2","tenant":"1","name":"Marketing Global Consumer Products","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"4F4B5DE0-6DB3-207D-A79C-BA1E083140F6","tenant":"1","name":"Marketing Global Consumer Products","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U24" t="str">
-        <f ca="1">$U$1&amp;G24&amp;$V$1&amp;H24&amp;$W$1</f>
-        <v>{"_from":"department/67C4EC64-7D36-7C26-8E58-94714A4B89D2","_to":"department/E351EDE5-01D5-3DBF-9EBE-5C9C8C6A5710"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/4F4B5DE0-6DB3-207D-A79C-BA1E083140F6","_to":"department/AFB34FB8-1758-6895-8E42-0CEEC00821D5"}</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -1442,27 +1634,27 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>DC111F7A-1BCA-3109-9A5C-8460A3A192F5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2171813C-5834-4526-9288-3D17F72323C2</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DC111F7A-1BCA-3109-9A5C-8460A3A192F5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2171813C-5834-4526-9288-3D17F72323C2</v>
       </c>
       <c r="H25" t="str">
         <f ca="1">B23</f>
-        <v>933A82F6-3BFD-2818-563C-CA1E0D4F6854</v>
+        <v>F3EE4409-A00B-71B9-4EE6-1B5D90EC3EE3</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"DC111F7A-1BCA-3109-9A5C-8460A3A192F5","tenant":"1","name":"Sales GCP Operations","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"2171813C-5834-4526-9288-3D17F72323C2","tenant":"1","name":"Sales GCP Operations","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U25" t="str">
-        <f ca="1">$U$1&amp;G25&amp;$V$1&amp;H25&amp;$W$1</f>
-        <v>{"_from":"department/DC111F7A-1BCA-3109-9A5C-8460A3A192F5","_to":"department/933A82F6-3BFD-2818-563C-CA1E0D4F6854"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/2171813C-5834-4526-9288-3D17F72323C2","_to":"department/F3EE4409-A00B-71B9-4EE6-1B5D90EC3EE3"}</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -1470,27 +1662,27 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>15AD0FEC-4946-A233-1EBC-16F48C506A37</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4CB5764C-6D4E-7089-46CA-CDED00550444</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>15AD0FEC-4946-A233-1EBC-16F48C506A37</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4CB5764C-6D4E-7089-46CA-CDED00550444</v>
       </c>
       <c r="H26" t="str">
         <f ca="1">B22</f>
-        <v>E351EDE5-01D5-3DBF-9EBE-5C9C8C6A5710</v>
+        <v>AFB34FB8-1758-6895-8E42-0CEEC00821D5</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"15AD0FEC-4946-A233-1EBC-16F48C506A37","tenant":"1","name":"Sales Global Enterprise Products","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"4CB5764C-6D4E-7089-46CA-CDED00550444","tenant":"1","name":"Sales Global Enterprise Products","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U26" t="str">
-        <f ca="1">$U$1&amp;G26&amp;$V$1&amp;H26&amp;$W$1</f>
-        <v>{"_from":"department/15AD0FEC-4946-A233-1EBC-16F48C506A37","_to":"department/E351EDE5-01D5-3DBF-9EBE-5C9C8C6A5710"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/4CB5764C-6D4E-7089-46CA-CDED00550444","_to":"department/AFB34FB8-1758-6895-8E42-0CEEC00821D5"}</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -1498,27 +1690,27 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F38D09C0-A0F4-9265-75AF-5B9AF0862DDB</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>AA2B8E47-32B8-6F7A-579E-1CBE633424FA</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>F38D09C0-A0F4-9265-75AF-5B9AF0862DDB</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>AA2B8E47-32B8-6F7A-579E-1CBE633424FA</v>
       </c>
       <c r="H27" t="str">
         <f ca="1">B22</f>
-        <v>E351EDE5-01D5-3DBF-9EBE-5C9C8C6A5710</v>
+        <v>AFB34FB8-1758-6895-8E42-0CEEC00821D5</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"F38D09C0-A0F4-9265-75AF-5B9AF0862DDB","tenant":"1","name":"Marketing Global Enterprise Products","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"AA2B8E47-32B8-6F7A-579E-1CBE633424FA","tenant":"1","name":"Marketing Global Enterprise Products","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U27" t="str">
-        <f ca="1">$U$1&amp;G27&amp;$V$1&amp;H27&amp;$W$1</f>
-        <v>{"_from":"department/F38D09C0-A0F4-9265-75AF-5B9AF0862DDB","_to":"department/E351EDE5-01D5-3DBF-9EBE-5C9C8C6A5710"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/AA2B8E47-32B8-6F7A-579E-1CBE633424FA","_to":"department/AFB34FB8-1758-6895-8E42-0CEEC00821D5"}</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -1526,27 +1718,27 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>5B562820-31AC-9788-9C80-4352EA022DD8</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1018846D-5425-93BC-0BF8-6DF328EEA71F</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>5B562820-31AC-9788-9C80-4352EA022DD8</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1018846D-5425-93BC-0BF8-6DF328EEA71F</v>
       </c>
       <c r="H28" t="str">
         <f ca="1">B23</f>
-        <v>933A82F6-3BFD-2818-563C-CA1E0D4F6854</v>
+        <v>F3EE4409-A00B-71B9-4EE6-1B5D90EC3EE3</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"5B562820-31AC-9788-9C80-4352EA022DD8","tenant":"1","name":"Sales Ops Consumer Products EMEA","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"1018846D-5425-93BC-0BF8-6DF328EEA71F","tenant":"1","name":"Sales Ops Consumer Products EMEA","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U28" t="str">
-        <f ca="1">$U$1&amp;G28&amp;$V$1&amp;H28&amp;$W$1</f>
-        <v>{"_from":"department/5B562820-31AC-9788-9C80-4352EA022DD8","_to":"department/933A82F6-3BFD-2818-563C-CA1E0D4F6854"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/1018846D-5425-93BC-0BF8-6DF328EEA71F","_to":"department/F3EE4409-A00B-71B9-4EE6-1B5D90EC3EE3"}</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -1554,27 +1746,27 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>E1D11494-0781-8A89-0484-C426F6F2465B</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>FB5D02BB-420C-589E-7A64-45AB99AA1426</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>E1D11494-0781-8A89-0484-C426F6F2465B</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>FB5D02BB-420C-589E-7A64-45AB99AA1426</v>
       </c>
       <c r="H29" t="str">
         <f ca="1">B28</f>
-        <v>5B562820-31AC-9788-9C80-4352EA022DD8</v>
+        <v>1018846D-5425-93BC-0BF8-6DF328EEA71F</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"E1D11494-0781-8A89-0484-C426F6F2465B","tenant":"1","name":"Sales Ops Consumer Products UK","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"FB5D02BB-420C-589E-7A64-45AB99AA1426","tenant":"1","name":"Sales Ops Consumer Products UK","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U29" t="str">
-        <f ca="1">$U$1&amp;G29&amp;$V$1&amp;H29&amp;$W$1</f>
-        <v>{"_from":"department/E1D11494-0781-8A89-0484-C426F6F2465B","_to":"department/5B562820-31AC-9788-9C80-4352EA022DD8"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/FB5D02BB-420C-589E-7A64-45AB99AA1426","_to":"department/1018846D-5425-93BC-0BF8-6DF328EEA71F"}</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -1582,27 +1774,27 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>6DF3B0EA-093C-75F3-0086-D157D7699DAC</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>F7FFC9BA-9C3D-2BD7-36FB-E11FE930521A</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>6DF3B0EA-093C-75F3-0086-D157D7699DAC</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>F7FFC9BA-9C3D-2BD7-36FB-E11FE930521A</v>
       </c>
       <c r="H30" t="str">
         <f ca="1">B28</f>
-        <v>5B562820-31AC-9788-9C80-4352EA022DD8</v>
+        <v>1018846D-5425-93BC-0BF8-6DF328EEA71F</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"6DF3B0EA-093C-75F3-0086-D157D7699DAC","tenant":"1","name":"Sales Ops Consumer Products France","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"F7FFC9BA-9C3D-2BD7-36FB-E11FE930521A","tenant":"1","name":"Sales Ops Consumer Products France","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U30" t="str">
-        <f ca="1">$U$1&amp;G30&amp;$V$1&amp;H30&amp;$W$1</f>
-        <v>{"_from":"department/6DF3B0EA-093C-75F3-0086-D157D7699DAC","_to":"department/5B562820-31AC-9788-9C80-4352EA022DD8"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/F7FFC9BA-9C3D-2BD7-36FB-E11FE930521A","_to":"department/1018846D-5425-93BC-0BF8-6DF328EEA71F"}</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -1610,27 +1802,27 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2A92C7E1-7C54-2A6D-A1C8-04FD001224C2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>D7020565-3648-6831-4FD5-EC7C810C4680</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>2A92C7E1-7C54-2A6D-A1C8-04FD001224C2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>D7020565-3648-6831-4FD5-EC7C810C4680</v>
       </c>
       <c r="H31" t="str">
         <f ca="1">B28</f>
-        <v>5B562820-31AC-9788-9C80-4352EA022DD8</v>
+        <v>1018846D-5425-93BC-0BF8-6DF328EEA71F</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"2A92C7E1-7C54-2A6D-A1C8-04FD001224C2","tenant":"1","name":"Sales Ops Consumer Products Benelux","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"D7020565-3648-6831-4FD5-EC7C810C4680","tenant":"1","name":"Sales Ops Consumer Products Benelux","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U31" t="str">
-        <f ca="1">$U$1&amp;G31&amp;$V$1&amp;H31&amp;$W$1</f>
-        <v>{"_from":"department/2A92C7E1-7C54-2A6D-A1C8-04FD001224C2","_to":"department/5B562820-31AC-9788-9C80-4352EA022DD8"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/D7020565-3648-6831-4FD5-EC7C810C4680","_to":"department/1018846D-5425-93BC-0BF8-6DF328EEA71F"}</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -1638,27 +1830,27 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>411B66B7-9F2F-9788-595F-240A83781F9C</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5F975A89-610C-57D2-98C2-62AE60B464D4</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>411B66B7-9F2F-9788-595F-240A83781F9C</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5F975A89-610C-57D2-98C2-62AE60B464D4</v>
       </c>
       <c r="H32" t="str">
         <f ca="1">B28</f>
-        <v>5B562820-31AC-9788-9C80-4352EA022DD8</v>
+        <v>1018846D-5425-93BC-0BF8-6DF328EEA71F</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"411B66B7-9F2F-9788-595F-240A83781F9C","tenant":"1","name":"Sales Ops Consumer Products Germany","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"5F975A89-610C-57D2-98C2-62AE60B464D4","tenant":"1","name":"Sales Ops Consumer Products Germany","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U32" t="str">
-        <f ca="1">$U$1&amp;G32&amp;$V$1&amp;H32&amp;$W$1</f>
-        <v>{"_from":"department/411B66B7-9F2F-9788-595F-240A83781F9C","_to":"department/5B562820-31AC-9788-9C80-4352EA022DD8"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/5F975A89-610C-57D2-98C2-62AE60B464D4","_to":"department/1018846D-5425-93BC-0BF8-6DF328EEA71F"}</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -1666,27 +1858,27 @@
         <v>1</v>
       </c>
       <c r="B33" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>5B508C63-53B8-4993-351D-412902589954</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5532FD11-9493-6C1E-8461-E0D4BAAF4C68</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>5B508C63-53B8-4993-351D-412902589954</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5532FD11-9493-6C1E-8461-E0D4BAAF4C68</v>
       </c>
       <c r="H33" t="str">
         <f ca="1">B28</f>
-        <v>5B562820-31AC-9788-9C80-4352EA022DD8</v>
+        <v>1018846D-5425-93BC-0BF8-6DF328EEA71F</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"5B508C63-53B8-4993-351D-412902589954","tenant":"1","name":"Sales Ops Consumer Products Italy","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"5532FD11-9493-6C1E-8461-E0D4BAAF4C68","tenant":"1","name":"Sales Ops Consumer Products Italy","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U33" t="str">
-        <f ca="1">$U$1&amp;G33&amp;$V$1&amp;H33&amp;$W$1</f>
-        <v>{"_from":"department/5B508C63-53B8-4993-351D-412902589954","_to":"department/5B562820-31AC-9788-9C80-4352EA022DD8"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/5532FD11-9493-6C1E-8461-E0D4BAAF4C68","_to":"department/1018846D-5425-93BC-0BF8-6DF328EEA71F"}</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -1694,27 +1886,27 @@
         <v>1</v>
       </c>
       <c r="B34" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>E5141856-023F-0132-A296-DCCC019D030F</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>000F049D-71B5-5F55-79D0-B6A1CB736BF8</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>E5141856-023F-0132-A296-DCCC019D030F</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>000F049D-71B5-5F55-79D0-B6A1CB736BF8</v>
       </c>
       <c r="H34" t="str">
         <f ca="1">B23</f>
-        <v>933A82F6-3BFD-2818-563C-CA1E0D4F6854</v>
+        <v>F3EE4409-A00B-71B9-4EE6-1B5D90EC3EE3</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"_key":"E5141856-023F-0132-A296-DCCC019D030F","tenant":"1","name":"Sales Ops Consumer Products JAPAC","collaborators":[],"manager":"","addressID":""}</v>
+        <v>{"_key":"000F049D-71B5-5F55-79D0-B6A1CB736BF8","tenant":"1","name":"Sales Ops Consumer Products JAPAC","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U34" t="str">
-        <f ca="1">$U$1&amp;G34&amp;$V$1&amp;H34&amp;$W$1</f>
-        <v>{"_from":"department/E5141856-023F-0132-A296-DCCC019D030F","_to":"department/933A82F6-3BFD-2818-563C-CA1E0D4F6854"}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_from":"department/000F049D-71B5-5F55-79D0-B6A1CB736BF8","_to":"department/F3EE4409-A00B-71B9-4EE6-1B5D90EC3EE3"}</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -1722,27 +1914,27 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>A83E3DD4-4911-6865-5984-63A4C7E14258</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5578DBBF-275D-8760-79D0-C176F87F3369</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>A83E3DD4-4911-6865-5984-63A4C7E14258</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5578DBBF-275D-8760-79D0-C176F87F3369</v>
       </c>
       <c r="H35" t="str">
         <f ca="1">B34</f>
-        <v>E5141856-023F-0132-A296-DCCC019D030F</v>
+        <v>000F049D-71B5-5F55-79D0-B6A1CB736BF8</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" ref="L35:L66" ca="1" si="3">$L$1&amp;B35&amp;$M$1&amp;A35&amp;$N$1&amp;C35&amp;$O$1&amp;D35&amp;$P$1&amp;E35&amp;$Q$1&amp;F35&amp;$R$1</f>
-        <v>{"_key":"A83E3DD4-4911-6865-5984-63A4C7E14258","tenant":"1","name":"Sales Ops Consumer Products Japan","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ref="L35:L66" ca="1" si="4">$L$1&amp;B35&amp;$M$1&amp;A35&amp;$N$1&amp;C35&amp;$O$1&amp;D35&amp;$P$1&amp;E35&amp;$Q$1&amp;F35&amp;$R$1</f>
+        <v>{"_key":"5578DBBF-275D-8760-79D0-C176F87F3369","tenant":"1","name":"Sales Ops Consumer Products Japan","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U35" t="str">
-        <f ca="1">$U$1&amp;G35&amp;$V$1&amp;H35&amp;$W$1</f>
-        <v>{"_from":"department/A83E3DD4-4911-6865-5984-63A4C7E14258","_to":"department/E5141856-023F-0132-A296-DCCC019D030F"}</v>
+        <f t="shared" ref="U35:U66" ca="1" si="5">$U$1&amp;G35&amp;$V$1&amp;H35&amp;$W$1</f>
+        <v>{"_from":"department/5578DBBF-275D-8760-79D0-C176F87F3369","_to":"department/000F049D-71B5-5F55-79D0-B6A1CB736BF8"}</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -1750,27 +1942,27 @@
         <v>1</v>
       </c>
       <c r="B36" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>13FD4E2F-2445-09A8-7CA2-FABE065C3270</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>211A6081-9B4E-4149-0FCA-F4F858DB14A3</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>13FD4E2F-2445-09A8-7CA2-FABE065C3270</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>211A6081-9B4E-4149-0FCA-F4F858DB14A3</v>
       </c>
       <c r="H36" t="str">
         <f ca="1">B34</f>
-        <v>E5141856-023F-0132-A296-DCCC019D030F</v>
+        <v>000F049D-71B5-5F55-79D0-B6A1CB736BF8</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"13FD4E2F-2445-09A8-7CA2-FABE065C3270","tenant":"1","name":"Sales Ops Consumer Products China","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"211A6081-9B4E-4149-0FCA-F4F858DB14A3","tenant":"1","name":"Sales Ops Consumer Products China","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U36" t="str">
-        <f ca="1">$U$1&amp;G36&amp;$V$1&amp;H36&amp;$W$1</f>
-        <v>{"_from":"department/13FD4E2F-2445-09A8-7CA2-FABE065C3270","_to":"department/E5141856-023F-0132-A296-DCCC019D030F"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/211A6081-9B4E-4149-0FCA-F4F858DB14A3","_to":"department/000F049D-71B5-5F55-79D0-B6A1CB736BF8"}</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -1778,27 +1970,27 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>437EC3FD-09B4-53F0-155E-68B0A91D291C</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>01DB649D-36AB-5D30-73AE-8BF246A26E56</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>437EC3FD-09B4-53F0-155E-68B0A91D291C</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>01DB649D-36AB-5D30-73AE-8BF246A26E56</v>
       </c>
       <c r="H37" t="str">
         <f ca="1">B34</f>
-        <v>E5141856-023F-0132-A296-DCCC019D030F</v>
+        <v>000F049D-71B5-5F55-79D0-B6A1CB736BF8</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"437EC3FD-09B4-53F0-155E-68B0A91D291C","tenant":"1","name":"Sales Ops Consumer Products Australia","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"01DB649D-36AB-5D30-73AE-8BF246A26E56","tenant":"1","name":"Sales Ops Consumer Products Australia","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U37" t="str">
-        <f ca="1">$U$1&amp;G37&amp;$V$1&amp;H37&amp;$W$1</f>
-        <v>{"_from":"department/437EC3FD-09B4-53F0-155E-68B0A91D291C","_to":"department/E5141856-023F-0132-A296-DCCC019D030F"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/01DB649D-36AB-5D30-73AE-8BF246A26E56","_to":"department/000F049D-71B5-5F55-79D0-B6A1CB736BF8"}</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -1806,27 +1998,27 @@
         <v>1</v>
       </c>
       <c r="B38" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>E2F10B4C-853A-8D6B-8FCB-A605948C13EA</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0D6098BF-4B97-3FAA-25F8-E463534A8D5C</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>E2F10B4C-853A-8D6B-8FCB-A605948C13EA</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0D6098BF-4B97-3FAA-25F8-E463534A8D5C</v>
       </c>
       <c r="H38" t="str">
         <f ca="1">B23</f>
-        <v>933A82F6-3BFD-2818-563C-CA1E0D4F6854</v>
+        <v>F3EE4409-A00B-71B9-4EE6-1B5D90EC3EE3</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"E2F10B4C-853A-8D6B-8FCB-A605948C13EA","tenant":"1","name":"Sales Ops Consumer Products North America","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"0D6098BF-4B97-3FAA-25F8-E463534A8D5C","tenant":"1","name":"Sales Ops Consumer Products North America","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U38" t="str">
-        <f ca="1">$U$1&amp;G38&amp;$V$1&amp;H38&amp;$W$1</f>
-        <v>{"_from":"department/E2F10B4C-853A-8D6B-8FCB-A605948C13EA","_to":"department/933A82F6-3BFD-2818-563C-CA1E0D4F6854"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/0D6098BF-4B97-3FAA-25F8-E463534A8D5C","_to":"department/F3EE4409-A00B-71B9-4EE6-1B5D90EC3EE3"}</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -1834,27 +2026,27 @@
         <v>1</v>
       </c>
       <c r="B39" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>772BC1D0-563B-322D-67C0-1C8D0157A1D7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>68B5DC0A-09CB-592F-5C86-D9B20575634F</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>772BC1D0-563B-322D-67C0-1C8D0157A1D7</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>68B5DC0A-09CB-592F-5C86-D9B20575634F</v>
       </c>
       <c r="H39" t="str">
         <f ca="1">B38</f>
-        <v>E2F10B4C-853A-8D6B-8FCB-A605948C13EA</v>
+        <v>0D6098BF-4B97-3FAA-25F8-E463534A8D5C</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"772BC1D0-563B-322D-67C0-1C8D0157A1D7","tenant":"1","name":"Sales Ops Consumer Products USA","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"68B5DC0A-09CB-592F-5C86-D9B20575634F","tenant":"1","name":"Sales Ops Consumer Products USA","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U39" t="str">
-        <f ca="1">$U$1&amp;G39&amp;$V$1&amp;H39&amp;$W$1</f>
-        <v>{"_from":"department/772BC1D0-563B-322D-67C0-1C8D0157A1D7","_to":"department/E2F10B4C-853A-8D6B-8FCB-A605948C13EA"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/68B5DC0A-09CB-592F-5C86-D9B20575634F","_to":"department/0D6098BF-4B97-3FAA-25F8-E463534A8D5C"}</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -1862,27 +2054,27 @@
         <v>1</v>
       </c>
       <c r="B40" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>92E59AB6-35FA-34A4-A376-8C6585784469</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5CF1DE69-98BC-1345-296F-1BE2ADE17705</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>92E59AB6-35FA-34A4-A376-8C6585784469</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5CF1DE69-98BC-1345-296F-1BE2ADE17705</v>
       </c>
       <c r="H40" t="str">
         <f ca="1">B38</f>
-        <v>E2F10B4C-853A-8D6B-8FCB-A605948C13EA</v>
+        <v>0D6098BF-4B97-3FAA-25F8-E463534A8D5C</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"92E59AB6-35FA-34A4-A376-8C6585784469","tenant":"1","name":"Sales Ops Consumer Products Canada","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"5CF1DE69-98BC-1345-296F-1BE2ADE17705","tenant":"1","name":"Sales Ops Consumer Products Canada","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U40" t="str">
-        <f ca="1">$U$1&amp;G40&amp;$V$1&amp;H40&amp;$W$1</f>
-        <v>{"_from":"department/92E59AB6-35FA-34A4-A376-8C6585784469","_to":"department/E2F10B4C-853A-8D6B-8FCB-A605948C13EA"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/5CF1DE69-98BC-1345-296F-1BE2ADE17705","_to":"department/0D6098BF-4B97-3FAA-25F8-E463534A8D5C"}</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -1890,27 +2082,27 @@
         <v>1</v>
       </c>
       <c r="B41" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F99D0A01-31BB-9D57-218C-D3C9493E4CEB</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8ADB507F-0682-38B2-23D4-5E3220173FC9</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>F99D0A01-31BB-9D57-218C-D3C9493E4CEB</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8ADB507F-0682-38B2-23D4-5E3220173FC9</v>
       </c>
       <c r="H41" t="str">
         <f ca="1">B23</f>
-        <v>933A82F6-3BFD-2818-563C-CA1E0D4F6854</v>
+        <v>F3EE4409-A00B-71B9-4EE6-1B5D90EC3EE3</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"F99D0A01-31BB-9D57-218C-D3C9493E4CEB","tenant":"1","name":"Sales Ops Consumer Products South America","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"8ADB507F-0682-38B2-23D4-5E3220173FC9","tenant":"1","name":"Sales Ops Consumer Products South America","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U41" t="str">
-        <f ca="1">$U$1&amp;G41&amp;$V$1&amp;H41&amp;$W$1</f>
-        <v>{"_from":"department/F99D0A01-31BB-9D57-218C-D3C9493E4CEB","_to":"department/933A82F6-3BFD-2818-563C-CA1E0D4F6854"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/8ADB507F-0682-38B2-23D4-5E3220173FC9","_to":"department/F3EE4409-A00B-71B9-4EE6-1B5D90EC3EE3"}</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -1918,27 +2110,27 @@
         <v>1</v>
       </c>
       <c r="B42" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>27036E09-838B-35C3-5D22-82A8209B00AA</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5C548C61-6381-5645-9F3B-49E4E1B04687</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>27036E09-838B-35C3-5D22-82A8209B00AA</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5C548C61-6381-5645-9F3B-49E4E1B04687</v>
       </c>
       <c r="H42" t="str">
         <f ca="1">B41</f>
-        <v>F99D0A01-31BB-9D57-218C-D3C9493E4CEB</v>
+        <v>8ADB507F-0682-38B2-23D4-5E3220173FC9</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"27036E09-838B-35C3-5D22-82A8209B00AA","tenant":"1","name":"Sales Ops Consumer Products Brazil","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"5C548C61-6381-5645-9F3B-49E4E1B04687","tenant":"1","name":"Sales Ops Consumer Products Brazil","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U42" t="str">
-        <f ca="1">$U$1&amp;G42&amp;$V$1&amp;H42&amp;$W$1</f>
-        <v>{"_from":"department/27036E09-838B-35C3-5D22-82A8209B00AA","_to":"department/F99D0A01-31BB-9D57-218C-D3C9493E4CEB"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/5C548C61-6381-5645-9F3B-49E4E1B04687","_to":"department/8ADB507F-0682-38B2-23D4-5E3220173FC9"}</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -1946,27 +2138,27 @@
         <v>1</v>
       </c>
       <c r="B43" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>27253B5B-85DD-4D1A-72D4-71FA61BD3EC5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2BD63C20-3F7E-62F4-0AF1-3162C4D988E5</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>27253B5B-85DD-4D1A-72D4-71FA61BD3EC5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2BD63C20-3F7E-62F4-0AF1-3162C4D988E5</v>
       </c>
       <c r="H43" t="str">
         <f ca="1">B41</f>
-        <v>F99D0A01-31BB-9D57-218C-D3C9493E4CEB</v>
+        <v>8ADB507F-0682-38B2-23D4-5E3220173FC9</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"27253B5B-85DD-4D1A-72D4-71FA61BD3EC5","tenant":"1","name":"Sales Ops Consumer Products Chile","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"2BD63C20-3F7E-62F4-0AF1-3162C4D988E5","tenant":"1","name":"Sales Ops Consumer Products Chile","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U43" t="str">
-        <f ca="1">$U$1&amp;G43&amp;$V$1&amp;H43&amp;$W$1</f>
-        <v>{"_from":"department/27253B5B-85DD-4D1A-72D4-71FA61BD3EC5","_to":"department/F99D0A01-31BB-9D57-218C-D3C9493E4CEB"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/2BD63C20-3F7E-62F4-0AF1-3162C4D988E5","_to":"department/8ADB507F-0682-38B2-23D4-5E3220173FC9"}</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -1974,27 +2166,27 @@
         <v>1</v>
       </c>
       <c r="B44" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>67783073-24D0-189F-29DA-0E9D13A85734</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43D5183A-8014-5EA4-5C0D-49F63F0B0592</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>67783073-24D0-189F-29DA-0E9D13A85734</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>43D5183A-8014-5EA4-5C0D-49F63F0B0592</v>
       </c>
       <c r="H44" t="str">
         <f ca="1">B41</f>
-        <v>F99D0A01-31BB-9D57-218C-D3C9493E4CEB</v>
+        <v>8ADB507F-0682-38B2-23D4-5E3220173FC9</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"67783073-24D0-189F-29DA-0E9D13A85734","tenant":"1","name":"Sales Ops Consumer Products Argentina","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"43D5183A-8014-5EA4-5C0D-49F63F0B0592","tenant":"1","name":"Sales Ops Consumer Products Argentina","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U44" t="str">
-        <f ca="1">$U$1&amp;G44&amp;$V$1&amp;H44&amp;$W$1</f>
-        <v>{"_from":"department/67783073-24D0-189F-29DA-0E9D13A85734","_to":"department/F99D0A01-31BB-9D57-218C-D3C9493E4CEB"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/43D5183A-8014-5EA4-5C0D-49F63F0B0592","_to":"department/8ADB507F-0682-38B2-23D4-5E3220173FC9"}</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -2002,27 +2194,27 @@
         <v>1</v>
       </c>
       <c r="B45" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>871B391A-9B86-9165-596D-B41C067900CD</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1A295505-A2C8-98DE-26CC-97BC57B2502E</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>871B391A-9B86-9165-596D-B41C067900CD</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1A295505-A2C8-98DE-26CC-97BC57B2502E</v>
       </c>
       <c r="H45" t="str">
         <f ca="1">B24</f>
-        <v>67C4EC64-7D36-7C26-8E58-94714A4B89D2</v>
+        <v>4F4B5DE0-6DB3-207D-A79C-BA1E083140F6</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"871B391A-9B86-9165-596D-B41C067900CD","tenant":"1","name":"Marketing Consumer Products EMEA","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"1A295505-A2C8-98DE-26CC-97BC57B2502E","tenant":"1","name":"Marketing Consumer Products EMEA","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U45" t="str">
-        <f ca="1">$U$1&amp;G45&amp;$V$1&amp;H45&amp;$W$1</f>
-        <v>{"_from":"department/871B391A-9B86-9165-596D-B41C067900CD","_to":"department/67C4EC64-7D36-7C26-8E58-94714A4B89D2"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/1A295505-A2C8-98DE-26CC-97BC57B2502E","_to":"department/4F4B5DE0-6DB3-207D-A79C-BA1E083140F6"}</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -2030,27 +2222,27 @@
         <v>1</v>
       </c>
       <c r="B46" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>05A485BE-72B1-12B5-6341-182F781B6065</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>C840F637-8456-4EE4-41D0-55F38A5B84CF</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>05A485BE-72B1-12B5-6341-182F781B6065</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>C840F637-8456-4EE4-41D0-55F38A5B84CF</v>
       </c>
       <c r="H46" t="str">
         <f ca="1">B45</f>
-        <v>871B391A-9B86-9165-596D-B41C067900CD</v>
+        <v>1A295505-A2C8-98DE-26CC-97BC57B2502E</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"05A485BE-72B1-12B5-6341-182F781B6065","tenant":"1","name":"Marketing Consumer Products UK","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"C840F637-8456-4EE4-41D0-55F38A5B84CF","tenant":"1","name":"Marketing Consumer Products UK","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U46" t="str">
-        <f ca="1">$U$1&amp;G46&amp;$V$1&amp;H46&amp;$W$1</f>
-        <v>{"_from":"department/05A485BE-72B1-12B5-6341-182F781B6065","_to":"department/871B391A-9B86-9165-596D-B41C067900CD"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/C840F637-8456-4EE4-41D0-55F38A5B84CF","_to":"department/1A295505-A2C8-98DE-26CC-97BC57B2502E"}</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -2058,27 +2250,27 @@
         <v>1</v>
       </c>
       <c r="B47" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CE467C01-7FB3-0B19-23A1-F41F1DE73C7F</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>C4F4BE17-13D1-59D0-6151-61C1B138112F</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>CE467C01-7FB3-0B19-23A1-F41F1DE73C7F</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>C4F4BE17-13D1-59D0-6151-61C1B138112F</v>
       </c>
       <c r="H47" t="str">
         <f ca="1">B45</f>
-        <v>871B391A-9B86-9165-596D-B41C067900CD</v>
+        <v>1A295505-A2C8-98DE-26CC-97BC57B2502E</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"CE467C01-7FB3-0B19-23A1-F41F1DE73C7F","tenant":"1","name":"Marketing Consumer Products France","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"C4F4BE17-13D1-59D0-6151-61C1B138112F","tenant":"1","name":"Marketing Consumer Products France","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U47" t="str">
-        <f ca="1">$U$1&amp;G47&amp;$V$1&amp;H47&amp;$W$1</f>
-        <v>{"_from":"department/CE467C01-7FB3-0B19-23A1-F41F1DE73C7F","_to":"department/871B391A-9B86-9165-596D-B41C067900CD"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/C4F4BE17-13D1-59D0-6151-61C1B138112F","_to":"department/1A295505-A2C8-98DE-26CC-97BC57B2502E"}</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -2086,27 +2278,27 @@
         <v>1</v>
       </c>
       <c r="B48" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>AC87EDFC-9BDB-44A2-7BB6-D5C4DAC10A4C</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5A1F109F-22C5-52C0-8F99-9A31CC0D0E2B</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>AC87EDFC-9BDB-44A2-7BB6-D5C4DAC10A4C</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5A1F109F-22C5-52C0-8F99-9A31CC0D0E2B</v>
       </c>
       <c r="H48" t="str">
         <f ca="1">B45</f>
-        <v>871B391A-9B86-9165-596D-B41C067900CD</v>
+        <v>1A295505-A2C8-98DE-26CC-97BC57B2502E</v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"AC87EDFC-9BDB-44A2-7BB6-D5C4DAC10A4C","tenant":"1","name":"Marketing Consumer Products Benelux","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"5A1F109F-22C5-52C0-8F99-9A31CC0D0E2B","tenant":"1","name":"Marketing Consumer Products Benelux","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U48" t="str">
-        <f ca="1">$U$1&amp;G48&amp;$V$1&amp;H48&amp;$W$1</f>
-        <v>{"_from":"department/AC87EDFC-9BDB-44A2-7BB6-D5C4DAC10A4C","_to":"department/871B391A-9B86-9165-596D-B41C067900CD"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/5A1F109F-22C5-52C0-8F99-9A31CC0D0E2B","_to":"department/1A295505-A2C8-98DE-26CC-97BC57B2502E"}</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -2114,27 +2306,27 @@
         <v>1</v>
       </c>
       <c r="B49" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>4A2A3692-8A3F-24F0-38F0-F8FBD46424C0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8F5F52AB-9B2D-8438-8359-F23459DE2E1A</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>4A2A3692-8A3F-24F0-38F0-F8FBD46424C0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8F5F52AB-9B2D-8438-8359-F23459DE2E1A</v>
       </c>
       <c r="H49" t="str">
         <f ca="1">B45</f>
-        <v>871B391A-9B86-9165-596D-B41C067900CD</v>
+        <v>1A295505-A2C8-98DE-26CC-97BC57B2502E</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"4A2A3692-8A3F-24F0-38F0-F8FBD46424C0","tenant":"1","name":"Marketing Consumer Products Germany","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"8F5F52AB-9B2D-8438-8359-F23459DE2E1A","tenant":"1","name":"Marketing Consumer Products Germany","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U49" t="str">
-        <f ca="1">$U$1&amp;G49&amp;$V$1&amp;H49&amp;$W$1</f>
-        <v>{"_from":"department/4A2A3692-8A3F-24F0-38F0-F8FBD46424C0","_to":"department/871B391A-9B86-9165-596D-B41C067900CD"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/8F5F52AB-9B2D-8438-8359-F23459DE2E1A","_to":"department/1A295505-A2C8-98DE-26CC-97BC57B2502E"}</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -2142,27 +2334,27 @@
         <v>1</v>
       </c>
       <c r="B50" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>5CD122EF-88FB-742B-2404-3AB6032F4699</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>D4D397F4-2FEE-58C9-A0E9-9851B77F66F7</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>5CD122EF-88FB-742B-2404-3AB6032F4699</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>D4D397F4-2FEE-58C9-A0E9-9851B77F66F7</v>
       </c>
       <c r="H50" t="str">
         <f ca="1">B45</f>
-        <v>871B391A-9B86-9165-596D-B41C067900CD</v>
+        <v>1A295505-A2C8-98DE-26CC-97BC57B2502E</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"5CD122EF-88FB-742B-2404-3AB6032F4699","tenant":"1","name":"Marketing Consumer Products Italy","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"D4D397F4-2FEE-58C9-A0E9-9851B77F66F7","tenant":"1","name":"Marketing Consumer Products Italy","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U50" t="str">
-        <f ca="1">$U$1&amp;G50&amp;$V$1&amp;H50&amp;$W$1</f>
-        <v>{"_from":"department/5CD122EF-88FB-742B-2404-3AB6032F4699","_to":"department/871B391A-9B86-9165-596D-B41C067900CD"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/D4D397F4-2FEE-58C9-A0E9-9851B77F66F7","_to":"department/1A295505-A2C8-98DE-26CC-97BC57B2502E"}</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -2170,27 +2362,27 @@
         <v>1</v>
       </c>
       <c r="B51" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>958B6699-5DC1-81D0-3AE7-59CBD4BA9DD7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>650AA330-6E5A-3BF2-5C5C-6C515206A12F</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>958B6699-5DC1-81D0-3AE7-59CBD4BA9DD7</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>650AA330-6E5A-3BF2-5C5C-6C515206A12F</v>
       </c>
       <c r="H51" t="str">
         <f ca="1">B24</f>
-        <v>67C4EC64-7D36-7C26-8E58-94714A4B89D2</v>
+        <v>4F4B5DE0-6DB3-207D-A79C-BA1E083140F6</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"958B6699-5DC1-81D0-3AE7-59CBD4BA9DD7","tenant":"1","name":"Marketing Consumer Products JAPAC","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"650AA330-6E5A-3BF2-5C5C-6C515206A12F","tenant":"1","name":"Marketing Consumer Products JAPAC","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U51" t="str">
-        <f ca="1">$U$1&amp;G51&amp;$V$1&amp;H51&amp;$W$1</f>
-        <v>{"_from":"department/958B6699-5DC1-81D0-3AE7-59CBD4BA9DD7","_to":"department/67C4EC64-7D36-7C26-8E58-94714A4B89D2"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/650AA330-6E5A-3BF2-5C5C-6C515206A12F","_to":"department/4F4B5DE0-6DB3-207D-A79C-BA1E083140F6"}</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -2198,27 +2390,27 @@
         <v>1</v>
       </c>
       <c r="B52" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>703D9B71-99BF-716F-57AE-45054F671AED</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2C62922E-7256-17EE-593F-CB65C86008CD</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>703D9B71-99BF-716F-57AE-45054F671AED</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2C62922E-7256-17EE-593F-CB65C86008CD</v>
       </c>
       <c r="H52" t="str">
         <f ca="1">B51</f>
-        <v>958B6699-5DC1-81D0-3AE7-59CBD4BA9DD7</v>
+        <v>650AA330-6E5A-3BF2-5C5C-6C515206A12F</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"703D9B71-99BF-716F-57AE-45054F671AED","tenant":"1","name":"Marketing Consumer Products Japan","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"2C62922E-7256-17EE-593F-CB65C86008CD","tenant":"1","name":"Marketing Consumer Products Japan","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U52" t="str">
-        <f ca="1">$U$1&amp;G52&amp;$V$1&amp;H52&amp;$W$1</f>
-        <v>{"_from":"department/703D9B71-99BF-716F-57AE-45054F671AED","_to":"department/958B6699-5DC1-81D0-3AE7-59CBD4BA9DD7"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/2C62922E-7256-17EE-593F-CB65C86008CD","_to":"department/650AA330-6E5A-3BF2-5C5C-6C515206A12F"}</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -2226,27 +2418,27 @@
         <v>1</v>
       </c>
       <c r="B53" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>6AC636B5-58E8-6952-1C14-3DC2A5CC4DB7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>F0ADB599-11A0-68FD-2E7A-5B1B5630778A</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>6AC636B5-58E8-6952-1C14-3DC2A5CC4DB7</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>F0ADB599-11A0-68FD-2E7A-5B1B5630778A</v>
       </c>
       <c r="H53" t="str">
         <f ca="1">B51</f>
-        <v>958B6699-5DC1-81D0-3AE7-59CBD4BA9DD7</v>
+        <v>650AA330-6E5A-3BF2-5C5C-6C515206A12F</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"6AC636B5-58E8-6952-1C14-3DC2A5CC4DB7","tenant":"1","name":"Marketing Consumer Products China","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"F0ADB599-11A0-68FD-2E7A-5B1B5630778A","tenant":"1","name":"Marketing Consumer Products China","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U53" t="str">
-        <f ca="1">$U$1&amp;G53&amp;$V$1&amp;H53&amp;$W$1</f>
-        <v>{"_from":"department/6AC636B5-58E8-6952-1C14-3DC2A5CC4DB7","_to":"department/958B6699-5DC1-81D0-3AE7-59CBD4BA9DD7"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/F0ADB599-11A0-68FD-2E7A-5B1B5630778A","_to":"department/650AA330-6E5A-3BF2-5C5C-6C515206A12F"}</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
@@ -2254,27 +2446,27 @@
         <v>1</v>
       </c>
       <c r="B54" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>27F3FE2E-1EAE-623E-9BC7-65BDDDDF026A</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>568C23E5-62D2-34D7-751B-FCB51A31096A</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>27F3FE2E-1EAE-623E-9BC7-65BDDDDF026A</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>568C23E5-62D2-34D7-751B-FCB51A31096A</v>
       </c>
       <c r="H54" t="str">
         <f ca="1">B51</f>
-        <v>958B6699-5DC1-81D0-3AE7-59CBD4BA9DD7</v>
+        <v>650AA330-6E5A-3BF2-5C5C-6C515206A12F</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"27F3FE2E-1EAE-623E-9BC7-65BDDDDF026A","tenant":"1","name":"Marketing Consumer Products Australia","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"568C23E5-62D2-34D7-751B-FCB51A31096A","tenant":"1","name":"Marketing Consumer Products Australia","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U54" t="str">
-        <f ca="1">$U$1&amp;G54&amp;$V$1&amp;H54&amp;$W$1</f>
-        <v>{"_from":"department/27F3FE2E-1EAE-623E-9BC7-65BDDDDF026A","_to":"department/958B6699-5DC1-81D0-3AE7-59CBD4BA9DD7"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/568C23E5-62D2-34D7-751B-FCB51A31096A","_to":"department/650AA330-6E5A-3BF2-5C5C-6C515206A12F"}</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
@@ -2282,27 +2474,27 @@
         <v>1</v>
       </c>
       <c r="B55" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>751AA95C-0D3A-3492-898F-083193E76790</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>C27AED47-38C7-3F8A-178C-EA3EDB058CC5</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>751AA95C-0D3A-3492-898F-083193E76790</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>C27AED47-38C7-3F8A-178C-EA3EDB058CC5</v>
       </c>
       <c r="H55" t="str">
         <f ca="1">B24</f>
-        <v>67C4EC64-7D36-7C26-8E58-94714A4B89D2</v>
+        <v>4F4B5DE0-6DB3-207D-A79C-BA1E083140F6</v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"751AA95C-0D3A-3492-898F-083193E76790","tenant":"1","name":"Marketing Consumer Products North America","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"C27AED47-38C7-3F8A-178C-EA3EDB058CC5","tenant":"1","name":"Marketing Consumer Products North America","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U55" t="str">
-        <f ca="1">$U$1&amp;G55&amp;$V$1&amp;H55&amp;$W$1</f>
-        <v>{"_from":"department/751AA95C-0D3A-3492-898F-083193E76790","_to":"department/67C4EC64-7D36-7C26-8E58-94714A4B89D2"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/C27AED47-38C7-3F8A-178C-EA3EDB058CC5","_to":"department/4F4B5DE0-6DB3-207D-A79C-BA1E083140F6"}</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
@@ -2310,27 +2502,27 @@
         <v>1</v>
       </c>
       <c r="B56" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>05DBE6A8-87D7-7C03-916A-97A0E9E54C85</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>52F2414E-0B2A-20D9-7B23-F4C763F38616</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>05DBE6A8-87D7-7C03-916A-97A0E9E54C85</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>52F2414E-0B2A-20D9-7B23-F4C763F38616</v>
       </c>
       <c r="H56" t="str">
         <f ca="1">B55</f>
-        <v>751AA95C-0D3A-3492-898F-083193E76790</v>
+        <v>C27AED47-38C7-3F8A-178C-EA3EDB058CC5</v>
       </c>
       <c r="L56" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"05DBE6A8-87D7-7C03-916A-97A0E9E54C85","tenant":"1","name":"Marketing Consumer Products USA","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"52F2414E-0B2A-20D9-7B23-F4C763F38616","tenant":"1","name":"Marketing Consumer Products USA","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U56" t="str">
-        <f ca="1">$U$1&amp;G56&amp;$V$1&amp;H56&amp;$W$1</f>
-        <v>{"_from":"department/05DBE6A8-87D7-7C03-916A-97A0E9E54C85","_to":"department/751AA95C-0D3A-3492-898F-083193E76790"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/52F2414E-0B2A-20D9-7B23-F4C763F38616","_to":"department/C27AED47-38C7-3F8A-178C-EA3EDB058CC5"}</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
@@ -2338,27 +2530,27 @@
         <v>1</v>
       </c>
       <c r="B57" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>5FE50583-17C0-952D-7229-E298106511A1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2113228F-1B29-6624-5017-255903DF9B19</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>5FE50583-17C0-952D-7229-E298106511A1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2113228F-1B29-6624-5017-255903DF9B19</v>
       </c>
       <c r="H57" t="str">
         <f ca="1">B55</f>
-        <v>751AA95C-0D3A-3492-898F-083193E76790</v>
+        <v>C27AED47-38C7-3F8A-178C-EA3EDB058CC5</v>
       </c>
       <c r="L57" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"5FE50583-17C0-952D-7229-E298106511A1","tenant":"1","name":"Marketing Consumer Products Canada","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"2113228F-1B29-6624-5017-255903DF9B19","tenant":"1","name":"Marketing Consumer Products Canada","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U57" t="str">
-        <f ca="1">$U$1&amp;G57&amp;$V$1&amp;H57&amp;$W$1</f>
-        <v>{"_from":"department/5FE50583-17C0-952D-7229-E298106511A1","_to":"department/751AA95C-0D3A-3492-898F-083193E76790"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/2113228F-1B29-6624-5017-255903DF9B19","_to":"department/C27AED47-38C7-3F8A-178C-EA3EDB058CC5"}</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
@@ -2366,27 +2558,27 @@
         <v>1</v>
       </c>
       <c r="B58" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>352BA848-53CB-644F-7DF8-2999C4993DC1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>51114BD5-5831-A396-076E-2889E2BC422F</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>352BA848-53CB-644F-7DF8-2999C4993DC1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>51114BD5-5831-A396-076E-2889E2BC422F</v>
       </c>
       <c r="H58" t="str">
         <f ca="1">B24</f>
-        <v>67C4EC64-7D36-7C26-8E58-94714A4B89D2</v>
+        <v>4F4B5DE0-6DB3-207D-A79C-BA1E083140F6</v>
       </c>
       <c r="L58" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"352BA848-53CB-644F-7DF8-2999C4993DC1","tenant":"1","name":"Marketing Consumer Products South America","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"51114BD5-5831-A396-076E-2889E2BC422F","tenant":"1","name":"Marketing Consumer Products South America","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U58" t="str">
-        <f ca="1">$U$1&amp;G58&amp;$V$1&amp;H58&amp;$W$1</f>
-        <v>{"_from":"department/352BA848-53CB-644F-7DF8-2999C4993DC1","_to":"department/67C4EC64-7D36-7C26-8E58-94714A4B89D2"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/51114BD5-5831-A396-076E-2889E2BC422F","_to":"department/4F4B5DE0-6DB3-207D-A79C-BA1E083140F6"}</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
@@ -2394,27 +2586,27 @@
         <v>1</v>
       </c>
       <c r="B59" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C526C629-60C9-7037-0253-9CE8556B2753</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>037B310C-6380-859E-7662-6DD6EE4D79E9</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>C526C629-60C9-7037-0253-9CE8556B2753</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>037B310C-6380-859E-7662-6DD6EE4D79E9</v>
       </c>
       <c r="H59" t="str">
         <f ca="1">B58</f>
-        <v>352BA848-53CB-644F-7DF8-2999C4993DC1</v>
+        <v>51114BD5-5831-A396-076E-2889E2BC422F</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"C526C629-60C9-7037-0253-9CE8556B2753","tenant":"1","name":"Marketing Consumer Products Brazil","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"037B310C-6380-859E-7662-6DD6EE4D79E9","tenant":"1","name":"Marketing Consumer Products Brazil","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U59" t="str">
-        <f ca="1">$U$1&amp;G59&amp;$V$1&amp;H59&amp;$W$1</f>
-        <v>{"_from":"department/C526C629-60C9-7037-0253-9CE8556B2753","_to":"department/352BA848-53CB-644F-7DF8-2999C4993DC1"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/037B310C-6380-859E-7662-6DD6EE4D79E9","_to":"department/51114BD5-5831-A396-076E-2889E2BC422F"}</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
@@ -2422,27 +2614,27 @@
         <v>1</v>
       </c>
       <c r="B60" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0ACCB322-4825-0EDE-2BAE-C8AAC0D55FF2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1E10A31E-212A-205E-7E1D-27E814453174</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>0ACCB322-4825-0EDE-2BAE-C8AAC0D55FF2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1E10A31E-212A-205E-7E1D-27E814453174</v>
       </c>
       <c r="H60" t="str">
         <f ca="1">B58</f>
-        <v>352BA848-53CB-644F-7DF8-2999C4993DC1</v>
+        <v>51114BD5-5831-A396-076E-2889E2BC422F</v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"0ACCB322-4825-0EDE-2BAE-C8AAC0D55FF2","tenant":"1","name":"Marketing Consumer Products Chile","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"1E10A31E-212A-205E-7E1D-27E814453174","tenant":"1","name":"Marketing Consumer Products Chile","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U60" t="str">
-        <f ca="1">$U$1&amp;G60&amp;$V$1&amp;H60&amp;$W$1</f>
-        <v>{"_from":"department/0ACCB322-4825-0EDE-2BAE-C8AAC0D55FF2","_to":"department/352BA848-53CB-644F-7DF8-2999C4993DC1"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/1E10A31E-212A-205E-7E1D-27E814453174","_to":"department/51114BD5-5831-A396-076E-2889E2BC422F"}</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
@@ -2450,27 +2642,27 @@
         <v>1</v>
       </c>
       <c r="B61" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>A16A0C7D-904E-6A65-9ECE-7569D3C2003C</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9164FA49-4852-1515-44C0-E5691B1E0EE1</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>A16A0C7D-904E-6A65-9ECE-7569D3C2003C</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9164FA49-4852-1515-44C0-E5691B1E0EE1</v>
       </c>
       <c r="H61" t="str">
         <f ca="1">B58</f>
-        <v>352BA848-53CB-644F-7DF8-2999C4993DC1</v>
+        <v>51114BD5-5831-A396-076E-2889E2BC422F</v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"A16A0C7D-904E-6A65-9ECE-7569D3C2003C","tenant":"1","name":"Marketing Consumer Products Argentina","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"9164FA49-4852-1515-44C0-E5691B1E0EE1","tenant":"1","name":"Marketing Consumer Products Argentina","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U61" t="str">
-        <f ca="1">$U$1&amp;G61&amp;$V$1&amp;H61&amp;$W$1</f>
-        <v>{"_from":"department/A16A0C7D-904E-6A65-9ECE-7569D3C2003C","_to":"department/352BA848-53CB-644F-7DF8-2999C4993DC1"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/9164FA49-4852-1515-44C0-E5691B1E0EE1","_to":"department/51114BD5-5831-A396-076E-2889E2BC422F"}</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -2478,27 +2670,27 @@
         <v>1</v>
       </c>
       <c r="B62" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>54DEEE5D-88EA-2FC3-A36E-101DDC1DA128</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>93CD13F4-943E-5D5B-8FBB-AF44F2ED4D16</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>54DEEE5D-88EA-2FC3-A36E-101DDC1DA128</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>93CD13F4-943E-5D5B-8FBB-AF44F2ED4D16</v>
       </c>
       <c r="H62" t="str">
         <f ca="1">B26</f>
-        <v>15AD0FEC-4946-A233-1EBC-16F48C506A37</v>
+        <v>4CB5764C-6D4E-7089-46CA-CDED00550444</v>
       </c>
       <c r="L62" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"54DEEE5D-88EA-2FC3-A36E-101DDC1DA128","tenant":"1","name":"Sales Ops Enterprise Products EMEA","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"93CD13F4-943E-5D5B-8FBB-AF44F2ED4D16","tenant":"1","name":"Sales Ops Enterprise Products EMEA","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U62" t="str">
-        <f ca="1">$U$1&amp;G62&amp;$V$1&amp;H62&amp;$W$1</f>
-        <v>{"_from":"department/54DEEE5D-88EA-2FC3-A36E-101DDC1DA128","_to":"department/15AD0FEC-4946-A233-1EBC-16F48C506A37"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/93CD13F4-943E-5D5B-8FBB-AF44F2ED4D16","_to":"department/4CB5764C-6D4E-7089-46CA-CDED00550444"}</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -2506,27 +2698,27 @@
         <v>1</v>
       </c>
       <c r="B63" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30B06EFE-7050-9BF9-4FF6-4CC896FB9CBC</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>B696E7EF-9500-4968-67FF-49CBED6B30CD</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>30B06EFE-7050-9BF9-4FF6-4CC896FB9CBC</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>B696E7EF-9500-4968-67FF-49CBED6B30CD</v>
       </c>
       <c r="H63" t="str">
         <f ca="1">B62</f>
-        <v>54DEEE5D-88EA-2FC3-A36E-101DDC1DA128</v>
+        <v>93CD13F4-943E-5D5B-8FBB-AF44F2ED4D16</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"30B06EFE-7050-9BF9-4FF6-4CC896FB9CBC","tenant":"1","name":"Sales Ops Enterprise Products UK","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"B696E7EF-9500-4968-67FF-49CBED6B30CD","tenant":"1","name":"Sales Ops Enterprise Products UK","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U63" t="str">
-        <f ca="1">$U$1&amp;G63&amp;$V$1&amp;H63&amp;$W$1</f>
-        <v>{"_from":"department/30B06EFE-7050-9BF9-4FF6-4CC896FB9CBC","_to":"department/54DEEE5D-88EA-2FC3-A36E-101DDC1DA128"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/B696E7EF-9500-4968-67FF-49CBED6B30CD","_to":"department/93CD13F4-943E-5D5B-8FBB-AF44F2ED4D16"}</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -2534,27 +2726,27 @@
         <v>1</v>
       </c>
       <c r="B64" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>53CF664F-0FAF-6FF0-09FA-2D1B4B55989F</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>E1A63483-3BE5-A2EA-55AF-5A71FCFD93A4</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>53CF664F-0FAF-6FF0-09FA-2D1B4B55989F</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>E1A63483-3BE5-A2EA-55AF-5A71FCFD93A4</v>
       </c>
       <c r="H64" t="str">
         <f ca="1">B62</f>
-        <v>54DEEE5D-88EA-2FC3-A36E-101DDC1DA128</v>
+        <v>93CD13F4-943E-5D5B-8FBB-AF44F2ED4D16</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"53CF664F-0FAF-6FF0-09FA-2D1B4B55989F","tenant":"1","name":"Sales Ops Enterprise Products France","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"E1A63483-3BE5-A2EA-55AF-5A71FCFD93A4","tenant":"1","name":"Sales Ops Enterprise Products France","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U64" t="str">
-        <f ca="1">$U$1&amp;G64&amp;$V$1&amp;H64&amp;$W$1</f>
-        <v>{"_from":"department/53CF664F-0FAF-6FF0-09FA-2D1B4B55989F","_to":"department/54DEEE5D-88EA-2FC3-A36E-101DDC1DA128"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/E1A63483-3BE5-A2EA-55AF-5A71FCFD93A4","_to":"department/93CD13F4-943E-5D5B-8FBB-AF44F2ED4D16"}</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
@@ -2562,27 +2754,27 @@
         <v>1</v>
       </c>
       <c r="B65" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>6A489095-410A-3B67-A05F-D337C4EE2A00</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>684CFB89-8E96-1A8A-0AD1-746E522274F2</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>6A489095-410A-3B67-A05F-D337C4EE2A00</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>684CFB89-8E96-1A8A-0AD1-746E522274F2</v>
       </c>
       <c r="H65" t="str">
         <f ca="1">B62</f>
-        <v>54DEEE5D-88EA-2FC3-A36E-101DDC1DA128</v>
+        <v>93CD13F4-943E-5D5B-8FBB-AF44F2ED4D16</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"6A489095-410A-3B67-A05F-D337C4EE2A00","tenant":"1","name":"Sales Ops Enterprise Products Benelux","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"684CFB89-8E96-1A8A-0AD1-746E522274F2","tenant":"1","name":"Sales Ops Enterprise Products Benelux","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U65" t="str">
-        <f ca="1">$U$1&amp;G65&amp;$V$1&amp;H65&amp;$W$1</f>
-        <v>{"_from":"department/6A489095-410A-3B67-A05F-D337C4EE2A00","_to":"department/54DEEE5D-88EA-2FC3-A36E-101DDC1DA128"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/684CFB89-8E96-1A8A-0AD1-746E522274F2","_to":"department/93CD13F4-943E-5D5B-8FBB-AF44F2ED4D16"}</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
@@ -2590,27 +2782,27 @@
         <v>1</v>
       </c>
       <c r="B66" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>EE9CE63F-89B9-1025-2EF3-CB7D8FD33C93</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>A45A3F2B-08A3-5E71-915A-F0E6A31546D4</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>EE9CE63F-89B9-1025-2EF3-CB7D8FD33C93</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>A45A3F2B-08A3-5E71-915A-F0E6A31546D4</v>
       </c>
       <c r="H66" t="str">
         <f ca="1">B62</f>
-        <v>54DEEE5D-88EA-2FC3-A36E-101DDC1DA128</v>
+        <v>93CD13F4-943E-5D5B-8FBB-AF44F2ED4D16</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{"_key":"EE9CE63F-89B9-1025-2EF3-CB7D8FD33C93","tenant":"1","name":"Sales Ops Enterprise Products Germany","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>{"_key":"A45A3F2B-08A3-5E71-915A-F0E6A31546D4","tenant":"1","name":"Sales Ops Enterprise Products Germany","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U66" t="str">
-        <f ca="1">$U$1&amp;G66&amp;$V$1&amp;H66&amp;$W$1</f>
-        <v>{"_from":"department/EE9CE63F-89B9-1025-2EF3-CB7D8FD33C93","_to":"department/54DEEE5D-88EA-2FC3-A36E-101DDC1DA128"}</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>{"_from":"department/A45A3F2B-08A3-5E71-915A-F0E6A31546D4","_to":"department/93CD13F4-943E-5D5B-8FBB-AF44F2ED4D16"}</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
@@ -2618,27 +2810,27 @@
         <v>1</v>
       </c>
       <c r="B67" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>187FDF8D-7149-6FBC-0F94-D3C99C3E4A2B</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0C0403A0-3F05-7CB0-10B9-6C1AD4BA55A8</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>187FDF8D-7149-6FBC-0F94-D3C99C3E4A2B</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0C0403A0-3F05-7CB0-10B9-6C1AD4BA55A8</v>
       </c>
       <c r="H67" t="str">
         <f ca="1">B62</f>
-        <v>54DEEE5D-88EA-2FC3-A36E-101DDC1DA128</v>
+        <v>93CD13F4-943E-5D5B-8FBB-AF44F2ED4D16</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L95" ca="1" si="4">$L$1&amp;B67&amp;$M$1&amp;A67&amp;$N$1&amp;C67&amp;$O$1&amp;D67&amp;$P$1&amp;E67&amp;$Q$1&amp;F67&amp;$R$1</f>
-        <v>{"_key":"187FDF8D-7149-6FBC-0F94-D3C99C3E4A2B","tenant":"1","name":"Sales Ops Enterprise Products Italy","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ref="L67:L95" ca="1" si="6">$L$1&amp;B67&amp;$M$1&amp;A67&amp;$N$1&amp;C67&amp;$O$1&amp;D67&amp;$P$1&amp;E67&amp;$Q$1&amp;F67&amp;$R$1</f>
+        <v>{"_key":"0C0403A0-3F05-7CB0-10B9-6C1AD4BA55A8","tenant":"1","name":"Sales Ops Enterprise Products Italy","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U67" t="str">
-        <f ca="1">$U$1&amp;G67&amp;$V$1&amp;H67&amp;$W$1</f>
-        <v>{"_from":"department/187FDF8D-7149-6FBC-0F94-D3C99C3E4A2B","_to":"department/54DEEE5D-88EA-2FC3-A36E-101DDC1DA128"}</v>
+        <f t="shared" ref="U67:U95" ca="1" si="7">$U$1&amp;G67&amp;$V$1&amp;H67&amp;$W$1</f>
+        <v>{"_from":"department/0C0403A0-3F05-7CB0-10B9-6C1AD4BA55A8","_to":"department/93CD13F4-943E-5D5B-8FBB-AF44F2ED4D16"}</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
@@ -2646,27 +2838,27 @@
         <v>1</v>
       </c>
       <c r="B68" s="2" t="str">
-        <f t="shared" ref="B68:B95" ca="1" si="5">CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4))</f>
-        <v>34F4BCBA-4F43-9BCA-6627-E1709B70A25C</v>
+        <f t="shared" ref="B68:B95" ca="1" si="8">CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4))</f>
+        <v>F4983DC5-49A6-271D-5676-ED1C375E2A40</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>34F4BCBA-4F43-9BCA-6627-E1709B70A25C</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>F4983DC5-49A6-271D-5676-ED1C375E2A40</v>
       </c>
       <c r="H68" t="str">
         <f ca="1">B26</f>
-        <v>15AD0FEC-4946-A233-1EBC-16F48C506A37</v>
+        <v>4CB5764C-6D4E-7089-46CA-CDED00550444</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"34F4BCBA-4F43-9BCA-6627-E1709B70A25C","tenant":"1","name":"Sales Ops Enterprise Products JAPAC","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"F4983DC5-49A6-271D-5676-ED1C375E2A40","tenant":"1","name":"Sales Ops Enterprise Products JAPAC","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U68" t="str">
-        <f ca="1">$U$1&amp;G68&amp;$V$1&amp;H68&amp;$W$1</f>
-        <v>{"_from":"department/34F4BCBA-4F43-9BCA-6627-E1709B70A25C","_to":"department/15AD0FEC-4946-A233-1EBC-16F48C506A37"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/F4983DC5-49A6-271D-5676-ED1C375E2A40","_to":"department/4CB5764C-6D4E-7089-46CA-CDED00550444"}</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
@@ -2674,27 +2866,27 @@
         <v>1</v>
       </c>
       <c r="B69" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>D488616E-3387-3CE6-2848-ED90E1F579B4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>D3FDF0DE-490F-9EC6-0E67-43F9725C4BE1</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>D488616E-3387-3CE6-2848-ED90E1F579B4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>D3FDF0DE-490F-9EC6-0E67-43F9725C4BE1</v>
       </c>
       <c r="H69" t="str">
         <f ca="1">B68</f>
-        <v>34F4BCBA-4F43-9BCA-6627-E1709B70A25C</v>
+        <v>F4983DC5-49A6-271D-5676-ED1C375E2A40</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"D488616E-3387-3CE6-2848-ED90E1F579B4","tenant":"1","name":"Sales Ops Enterprise Products Japan","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"D3FDF0DE-490F-9EC6-0E67-43F9725C4BE1","tenant":"1","name":"Sales Ops Enterprise Products Japan","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U69" t="str">
-        <f ca="1">$U$1&amp;G69&amp;$V$1&amp;H69&amp;$W$1</f>
-        <v>{"_from":"department/D488616E-3387-3CE6-2848-ED90E1F579B4","_to":"department/34F4BCBA-4F43-9BCA-6627-E1709B70A25C"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/D3FDF0DE-490F-9EC6-0E67-43F9725C4BE1","_to":"department/F4983DC5-49A6-271D-5676-ED1C375E2A40"}</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
@@ -2702,27 +2894,27 @@
         <v>1</v>
       </c>
       <c r="B70" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>6595C5DF-6476-65EF-78F1-3CDD90B24AE8</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>E7B05A2D-3F52-8B10-85D1-0175C5666F14</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" ref="G70:G95" ca="1" si="6">B70</f>
-        <v>6595C5DF-6476-65EF-78F1-3CDD90B24AE8</v>
+        <f t="shared" ref="G70:G95" ca="1" si="9">B70</f>
+        <v>E7B05A2D-3F52-8B10-85D1-0175C5666F14</v>
       </c>
       <c r="H70" t="str">
         <f ca="1">B68</f>
-        <v>34F4BCBA-4F43-9BCA-6627-E1709B70A25C</v>
+        <v>F4983DC5-49A6-271D-5676-ED1C375E2A40</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"6595C5DF-6476-65EF-78F1-3CDD90B24AE8","tenant":"1","name":"Sales Ops Enterprise Products China","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"E7B05A2D-3F52-8B10-85D1-0175C5666F14","tenant":"1","name":"Sales Ops Enterprise Products China","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U70" t="str">
-        <f ca="1">$U$1&amp;G70&amp;$V$1&amp;H70&amp;$W$1</f>
-        <v>{"_from":"department/6595C5DF-6476-65EF-78F1-3CDD90B24AE8","_to":"department/34F4BCBA-4F43-9BCA-6627-E1709B70A25C"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/E7B05A2D-3F52-8B10-85D1-0175C5666F14","_to":"department/F4983DC5-49A6-271D-5676-ED1C375E2A40"}</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
@@ -2730,27 +2922,27 @@
         <v>1</v>
       </c>
       <c r="B71" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>F2286A5B-2E84-30F5-6624-28FF640D4F64</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>FC5E1562-94A5-A480-8C25-DDBA5A197993</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>F2286A5B-2E84-30F5-6624-28FF640D4F64</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>FC5E1562-94A5-A480-8C25-DDBA5A197993</v>
       </c>
       <c r="H71" t="str">
         <f ca="1">B68</f>
-        <v>34F4BCBA-4F43-9BCA-6627-E1709B70A25C</v>
+        <v>F4983DC5-49A6-271D-5676-ED1C375E2A40</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"F2286A5B-2E84-30F5-6624-28FF640D4F64","tenant":"1","name":"Sales Ops Enterprise Products Australia","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"FC5E1562-94A5-A480-8C25-DDBA5A197993","tenant":"1","name":"Sales Ops Enterprise Products Australia","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U71" t="str">
-        <f ca="1">$U$1&amp;G71&amp;$V$1&amp;H71&amp;$W$1</f>
-        <v>{"_from":"department/F2286A5B-2E84-30F5-6624-28FF640D4F64","_to":"department/34F4BCBA-4F43-9BCA-6627-E1709B70A25C"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/FC5E1562-94A5-A480-8C25-DDBA5A197993","_to":"department/F4983DC5-49A6-271D-5676-ED1C375E2A40"}</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
@@ -2758,27 +2950,27 @@
         <v>1</v>
       </c>
       <c r="B72" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>A839C982-3D8A-04C8-890E-4F82DC379852</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>E675451D-743B-7570-9257-06F1CD4E646A</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>A839C982-3D8A-04C8-890E-4F82DC379852</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>E675451D-743B-7570-9257-06F1CD4E646A</v>
       </c>
       <c r="H72" t="str">
         <f ca="1">B26</f>
-        <v>15AD0FEC-4946-A233-1EBC-16F48C506A37</v>
+        <v>4CB5764C-6D4E-7089-46CA-CDED00550444</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"A839C982-3D8A-04C8-890E-4F82DC379852","tenant":"1","name":"Sales Ops Enterprise Products North America","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"E675451D-743B-7570-9257-06F1CD4E646A","tenant":"1","name":"Sales Ops Enterprise Products North America","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U72" t="str">
-        <f ca="1">$U$1&amp;G72&amp;$V$1&amp;H72&amp;$W$1</f>
-        <v>{"_from":"department/A839C982-3D8A-04C8-890E-4F82DC379852","_to":"department/15AD0FEC-4946-A233-1EBC-16F48C506A37"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/E675451D-743B-7570-9257-06F1CD4E646A","_to":"department/4CB5764C-6D4E-7089-46CA-CDED00550444"}</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
@@ -2786,27 +2978,27 @@
         <v>1</v>
       </c>
       <c r="B73" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>B648D334-24E4-455C-714E-6E69F6A41A8C</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>A7605638-0FC8-0F45-3D97-20CB85D62DE6</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>B648D334-24E4-455C-714E-6E69F6A41A8C</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>A7605638-0FC8-0F45-3D97-20CB85D62DE6</v>
       </c>
       <c r="H73" t="str">
         <f ca="1">B72</f>
-        <v>A839C982-3D8A-04C8-890E-4F82DC379852</v>
+        <v>E675451D-743B-7570-9257-06F1CD4E646A</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"B648D334-24E4-455C-714E-6E69F6A41A8C","tenant":"1","name":"Sales Ops Enterprise Products USA","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"A7605638-0FC8-0F45-3D97-20CB85D62DE6","tenant":"1","name":"Sales Ops Enterprise Products USA","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U73" t="str">
-        <f ca="1">$U$1&amp;G73&amp;$V$1&amp;H73&amp;$W$1</f>
-        <v>{"_from":"department/B648D334-24E4-455C-714E-6E69F6A41A8C","_to":"department/A839C982-3D8A-04C8-890E-4F82DC379852"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/A7605638-0FC8-0F45-3D97-20CB85D62DE6","_to":"department/E675451D-743B-7570-9257-06F1CD4E646A"}</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
@@ -2814,27 +3006,27 @@
         <v>1</v>
       </c>
       <c r="B74" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>4D027273-327A-96C7-0454-26BCF0B11DCF</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>E6879F17-51DF-799A-9479-ABBEC76A6373</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>4D027273-327A-96C7-0454-26BCF0B11DCF</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>E6879F17-51DF-799A-9479-ABBEC76A6373</v>
       </c>
       <c r="H74" t="str">
         <f ca="1">B72</f>
-        <v>A839C982-3D8A-04C8-890E-4F82DC379852</v>
+        <v>E675451D-743B-7570-9257-06F1CD4E646A</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"4D027273-327A-96C7-0454-26BCF0B11DCF","tenant":"1","name":"Sales Ops Enterprise Products Canada","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"E6879F17-51DF-799A-9479-ABBEC76A6373","tenant":"1","name":"Sales Ops Enterprise Products Canada","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U74" t="str">
-        <f ca="1">$U$1&amp;G74&amp;$V$1&amp;H74&amp;$W$1</f>
-        <v>{"_from":"department/4D027273-327A-96C7-0454-26BCF0B11DCF","_to":"department/A839C982-3D8A-04C8-890E-4F82DC379852"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/E6879F17-51DF-799A-9479-ABBEC76A6373","_to":"department/E675451D-743B-7570-9257-06F1CD4E646A"}</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
@@ -2842,27 +3034,27 @@
         <v>1</v>
       </c>
       <c r="B75" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>A5FFC0E0-077B-5EB4-33E4-0214B31643E9</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1C173879-110F-9EE6-A11F-BDF48FF69996</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>A5FFC0E0-077B-5EB4-33E4-0214B31643E9</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1C173879-110F-9EE6-A11F-BDF48FF69996</v>
       </c>
       <c r="H75" t="str">
         <f ca="1">B26</f>
-        <v>15AD0FEC-4946-A233-1EBC-16F48C506A37</v>
+        <v>4CB5764C-6D4E-7089-46CA-CDED00550444</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"A5FFC0E0-077B-5EB4-33E4-0214B31643E9","tenant":"1","name":"Sales Ops Enterprise Products South America","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"1C173879-110F-9EE6-A11F-BDF48FF69996","tenant":"1","name":"Sales Ops Enterprise Products South America","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U75" t="str">
-        <f ca="1">$U$1&amp;G75&amp;$V$1&amp;H75&amp;$W$1</f>
-        <v>{"_from":"department/A5FFC0E0-077B-5EB4-33E4-0214B31643E9","_to":"department/15AD0FEC-4946-A233-1EBC-16F48C506A37"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/1C173879-110F-9EE6-A11F-BDF48FF69996","_to":"department/4CB5764C-6D4E-7089-46CA-CDED00550444"}</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
@@ -2870,27 +3062,27 @@
         <v>1</v>
       </c>
       <c r="B76" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>6DEF087B-89A8-6CC8-01B6-B49ABEE387A5</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>C7BA6861-6EAC-047C-93A3-8B570C8F75C7</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>6DEF087B-89A8-6CC8-01B6-B49ABEE387A5</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>C7BA6861-6EAC-047C-93A3-8B570C8F75C7</v>
       </c>
       <c r="H76" t="str">
         <f ca="1">B75</f>
-        <v>A5FFC0E0-077B-5EB4-33E4-0214B31643E9</v>
+        <v>1C173879-110F-9EE6-A11F-BDF48FF69996</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"6DEF087B-89A8-6CC8-01B6-B49ABEE387A5","tenant":"1","name":"Sales Ops Enterprise Products Brazil","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"C7BA6861-6EAC-047C-93A3-8B570C8F75C7","tenant":"1","name":"Sales Ops Enterprise Products Brazil","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U76" t="str">
-        <f ca="1">$U$1&amp;G76&amp;$V$1&amp;H76&amp;$W$1</f>
-        <v>{"_from":"department/6DEF087B-89A8-6CC8-01B6-B49ABEE387A5","_to":"department/A5FFC0E0-077B-5EB4-33E4-0214B31643E9"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/C7BA6861-6EAC-047C-93A3-8B570C8F75C7","_to":"department/1C173879-110F-9EE6-A11F-BDF48FF69996"}</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
@@ -2898,27 +3090,27 @@
         <v>1</v>
       </c>
       <c r="B77" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>585D97A5-7CCC-2911-0D6A-8B1FB19B9286</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>B8DB5B38-4D08-6D99-83F3-5D02337F961E</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>585D97A5-7CCC-2911-0D6A-8B1FB19B9286</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>B8DB5B38-4D08-6D99-83F3-5D02337F961E</v>
       </c>
       <c r="H77" t="str">
         <f ca="1">B75</f>
-        <v>A5FFC0E0-077B-5EB4-33E4-0214B31643E9</v>
+        <v>1C173879-110F-9EE6-A11F-BDF48FF69996</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"585D97A5-7CCC-2911-0D6A-8B1FB19B9286","tenant":"1","name":"Sales Ops Enterprise Products Chile","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"B8DB5B38-4D08-6D99-83F3-5D02337F961E","tenant":"1","name":"Sales Ops Enterprise Products Chile","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U77" t="str">
-        <f ca="1">$U$1&amp;G77&amp;$V$1&amp;H77&amp;$W$1</f>
-        <v>{"_from":"department/585D97A5-7CCC-2911-0D6A-8B1FB19B9286","_to":"department/A5FFC0E0-077B-5EB4-33E4-0214B31643E9"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/B8DB5B38-4D08-6D99-83F3-5D02337F961E","_to":"department/1C173879-110F-9EE6-A11F-BDF48FF69996"}</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
@@ -2926,27 +3118,27 @@
         <v>1</v>
       </c>
       <c r="B78" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>D5049568-33BB-73AC-1EBA-E2A316393EBA</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>737B446F-57FD-22E9-1092-5E3AA4B5957B</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>D5049568-33BB-73AC-1EBA-E2A316393EBA</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>737B446F-57FD-22E9-1092-5E3AA4B5957B</v>
       </c>
       <c r="H78" t="str">
         <f ca="1">B75</f>
-        <v>A5FFC0E0-077B-5EB4-33E4-0214B31643E9</v>
+        <v>1C173879-110F-9EE6-A11F-BDF48FF69996</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"D5049568-33BB-73AC-1EBA-E2A316393EBA","tenant":"1","name":"Sales Ops Enterprise Products Argentina","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"737B446F-57FD-22E9-1092-5E3AA4B5957B","tenant":"1","name":"Sales Ops Enterprise Products Argentina","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U78" t="str">
-        <f ca="1">$U$1&amp;G78&amp;$V$1&amp;H78&amp;$W$1</f>
-        <v>{"_from":"department/D5049568-33BB-73AC-1EBA-E2A316393EBA","_to":"department/A5FFC0E0-077B-5EB4-33E4-0214B31643E9"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/737B446F-57FD-22E9-1092-5E3AA4B5957B","_to":"department/1C173879-110F-9EE6-A11F-BDF48FF69996"}</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
@@ -2954,27 +3146,27 @@
         <v>1</v>
       </c>
       <c r="B79" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>F9D5C854-44A6-3F54-17C7-899C37053809</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>129A9AF1-648C-7C92-6DB0-C4B5837A54E8</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>F9D5C854-44A6-3F54-17C7-899C37053809</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>129A9AF1-648C-7C92-6DB0-C4B5837A54E8</v>
       </c>
       <c r="H79" t="str">
         <f ca="1">B27</f>
-        <v>F38D09C0-A0F4-9265-75AF-5B9AF0862DDB</v>
+        <v>AA2B8E47-32B8-6F7A-579E-1CBE633424FA</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"F9D5C854-44A6-3F54-17C7-899C37053809","tenant":"1","name":"Marketing Enterprise Products EMEA","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"129A9AF1-648C-7C92-6DB0-C4B5837A54E8","tenant":"1","name":"Marketing Enterprise Products EMEA","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U79" t="str">
-        <f ca="1">$U$1&amp;G79&amp;$V$1&amp;H79&amp;$W$1</f>
-        <v>{"_from":"department/F9D5C854-44A6-3F54-17C7-899C37053809","_to":"department/F38D09C0-A0F4-9265-75AF-5B9AF0862DDB"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/129A9AF1-648C-7C92-6DB0-C4B5837A54E8","_to":"department/AA2B8E47-32B8-6F7A-579E-1CBE633424FA"}</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
@@ -2982,27 +3174,27 @@
         <v>1</v>
       </c>
       <c r="B80" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>BE980C4B-17C1-084F-9618-5A0AA6AD0392</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>B00AF9F6-79C3-0E86-72A0-E538C7F3057E</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>BE980C4B-17C1-084F-9618-5A0AA6AD0392</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>B00AF9F6-79C3-0E86-72A0-E538C7F3057E</v>
       </c>
       <c r="H80" t="str">
         <f ca="1">B79</f>
-        <v>F9D5C854-44A6-3F54-17C7-899C37053809</v>
+        <v>129A9AF1-648C-7C92-6DB0-C4B5837A54E8</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"BE980C4B-17C1-084F-9618-5A0AA6AD0392","tenant":"1","name":"Marketing Enterprise Products UK","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"B00AF9F6-79C3-0E86-72A0-E538C7F3057E","tenant":"1","name":"Marketing Enterprise Products UK","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U80" t="str">
-        <f ca="1">$U$1&amp;G80&amp;$V$1&amp;H80&amp;$W$1</f>
-        <v>{"_from":"department/BE980C4B-17C1-084F-9618-5A0AA6AD0392","_to":"department/F9D5C854-44A6-3F54-17C7-899C37053809"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/B00AF9F6-79C3-0E86-72A0-E538C7F3057E","_to":"department/129A9AF1-648C-7C92-6DB0-C4B5837A54E8"}</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
@@ -3010,27 +3202,27 @@
         <v>1</v>
       </c>
       <c r="B81" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>394FBD90-17B6-6749-7CAE-59B492FE789D</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>67389DA5-705E-55EC-0CC1-0A81B49C213E</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>394FBD90-17B6-6749-7CAE-59B492FE789D</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>67389DA5-705E-55EC-0CC1-0A81B49C213E</v>
       </c>
       <c r="H81" t="str">
         <f ca="1">B79</f>
-        <v>F9D5C854-44A6-3F54-17C7-899C37053809</v>
+        <v>129A9AF1-648C-7C92-6DB0-C4B5837A54E8</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"394FBD90-17B6-6749-7CAE-59B492FE789D","tenant":"1","name":"Marketing Enterprise Products France","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"67389DA5-705E-55EC-0CC1-0A81B49C213E","tenant":"1","name":"Marketing Enterprise Products France","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U81" t="str">
-        <f ca="1">$U$1&amp;G81&amp;$V$1&amp;H81&amp;$W$1</f>
-        <v>{"_from":"department/394FBD90-17B6-6749-7CAE-59B492FE789D","_to":"department/F9D5C854-44A6-3F54-17C7-899C37053809"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/67389DA5-705E-55EC-0CC1-0A81B49C213E","_to":"department/129A9AF1-648C-7C92-6DB0-C4B5837A54E8"}</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
@@ -3038,27 +3230,27 @@
         <v>1</v>
       </c>
       <c r="B82" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>2A3005FA-0D9D-2347-2648-8F38C8732C7C</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>A8D29C2C-01F8-45E3-88B4-FA8A11F70B56</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>2A3005FA-0D9D-2347-2648-8F38C8732C7C</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>A8D29C2C-01F8-45E3-88B4-FA8A11F70B56</v>
       </c>
       <c r="H82" t="str">
         <f ca="1">B79</f>
-        <v>F9D5C854-44A6-3F54-17C7-899C37053809</v>
+        <v>129A9AF1-648C-7C92-6DB0-C4B5837A54E8</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"2A3005FA-0D9D-2347-2648-8F38C8732C7C","tenant":"1","name":"Marketing Enterprise Products Benelux","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"A8D29C2C-01F8-45E3-88B4-FA8A11F70B56","tenant":"1","name":"Marketing Enterprise Products Benelux","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U82" t="str">
-        <f ca="1">$U$1&amp;G82&amp;$V$1&amp;H82&amp;$W$1</f>
-        <v>{"_from":"department/2A3005FA-0D9D-2347-2648-8F38C8732C7C","_to":"department/F9D5C854-44A6-3F54-17C7-899C37053809"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/A8D29C2C-01F8-45E3-88B4-FA8A11F70B56","_to":"department/129A9AF1-648C-7C92-6DB0-C4B5837A54E8"}</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
@@ -3066,27 +3258,27 @@
         <v>1</v>
       </c>
       <c r="B83" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>D7DB9F85-94FB-5C0F-164F-52E0FB173AE4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1A19FA85-6A3D-6096-9764-D1283F777673</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>D7DB9F85-94FB-5C0F-164F-52E0FB173AE4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1A19FA85-6A3D-6096-9764-D1283F777673</v>
       </c>
       <c r="H83" t="str">
         <f ca="1">B79</f>
-        <v>F9D5C854-44A6-3F54-17C7-899C37053809</v>
+        <v>129A9AF1-648C-7C92-6DB0-C4B5837A54E8</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"D7DB9F85-94FB-5C0F-164F-52E0FB173AE4","tenant":"1","name":"Marketing Enterprise Products Germany","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"1A19FA85-6A3D-6096-9764-D1283F777673","tenant":"1","name":"Marketing Enterprise Products Germany","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U83" t="str">
-        <f ca="1">$U$1&amp;G83&amp;$V$1&amp;H83&amp;$W$1</f>
-        <v>{"_from":"department/D7DB9F85-94FB-5C0F-164F-52E0FB173AE4","_to":"department/F9D5C854-44A6-3F54-17C7-899C37053809"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/1A19FA85-6A3D-6096-9764-D1283F777673","_to":"department/129A9AF1-648C-7C92-6DB0-C4B5837A54E8"}</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
@@ -3094,27 +3286,27 @@
         <v>1</v>
       </c>
       <c r="B84" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>7B8F87F9-66E2-1DEA-30E8-16D61C296996</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>7C7B637A-1636-95B6-4ECC-59F2B1E47697</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>7B8F87F9-66E2-1DEA-30E8-16D61C296996</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>7C7B637A-1636-95B6-4ECC-59F2B1E47697</v>
       </c>
       <c r="H84" t="str">
         <f ca="1">B79</f>
-        <v>F9D5C854-44A6-3F54-17C7-899C37053809</v>
+        <v>129A9AF1-648C-7C92-6DB0-C4B5837A54E8</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"7B8F87F9-66E2-1DEA-30E8-16D61C296996","tenant":"1","name":"Marketing Enterprise Products Italy","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"7C7B637A-1636-95B6-4ECC-59F2B1E47697","tenant":"1","name":"Marketing Enterprise Products Italy","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U84" t="str">
-        <f ca="1">$U$1&amp;G84&amp;$V$1&amp;H84&amp;$W$1</f>
-        <v>{"_from":"department/7B8F87F9-66E2-1DEA-30E8-16D61C296996","_to":"department/F9D5C854-44A6-3F54-17C7-899C37053809"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/7C7B637A-1636-95B6-4ECC-59F2B1E47697","_to":"department/129A9AF1-648C-7C92-6DB0-C4B5837A54E8"}</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
@@ -3122,27 +3314,27 @@
         <v>1</v>
       </c>
       <c r="B85" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>789B33DD-6E3A-65CD-198D-CB8647822979</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>18A78988-6861-19F3-57C2-8B9729D89F91</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>789B33DD-6E3A-65CD-198D-CB8647822979</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>18A78988-6861-19F3-57C2-8B9729D89F91</v>
       </c>
       <c r="H85" t="str">
         <f ca="1">B27</f>
-        <v>F38D09C0-A0F4-9265-75AF-5B9AF0862DDB</v>
+        <v>AA2B8E47-32B8-6F7A-579E-1CBE633424FA</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"789B33DD-6E3A-65CD-198D-CB8647822979","tenant":"1","name":"Marketing Enterprise Products JAPAC","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"18A78988-6861-19F3-57C2-8B9729D89F91","tenant":"1","name":"Marketing Enterprise Products JAPAC","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U85" t="str">
-        <f ca="1">$U$1&amp;G85&amp;$V$1&amp;H85&amp;$W$1</f>
-        <v>{"_from":"department/789B33DD-6E3A-65CD-198D-CB8647822979","_to":"department/F38D09C0-A0F4-9265-75AF-5B9AF0862DDB"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/18A78988-6861-19F3-57C2-8B9729D89F91","_to":"department/AA2B8E47-32B8-6F7A-579E-1CBE633424FA"}</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
@@ -3150,27 +3342,27 @@
         <v>1</v>
       </c>
       <c r="B86" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>CEE53D73-4E8C-3260-777C-6A9AEEF90B80</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3F17ED4B-3E6E-7640-1CD2-55515E0F071D</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>CEE53D73-4E8C-3260-777C-6A9AEEF90B80</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3F17ED4B-3E6E-7640-1CD2-55515E0F071D</v>
       </c>
       <c r="H86" t="str">
         <f ca="1">B85</f>
-        <v>789B33DD-6E3A-65CD-198D-CB8647822979</v>
+        <v>18A78988-6861-19F3-57C2-8B9729D89F91</v>
       </c>
       <c r="L86" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"CEE53D73-4E8C-3260-777C-6A9AEEF90B80","tenant":"1","name":"Marketing Enterprise Products Japan","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"3F17ED4B-3E6E-7640-1CD2-55515E0F071D","tenant":"1","name":"Marketing Enterprise Products Japan","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U86" t="str">
-        <f ca="1">$U$1&amp;G86&amp;$V$1&amp;H86&amp;$W$1</f>
-        <v>{"_from":"department/CEE53D73-4E8C-3260-777C-6A9AEEF90B80","_to":"department/789B33DD-6E3A-65CD-198D-CB8647822979"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/3F17ED4B-3E6E-7640-1CD2-55515E0F071D","_to":"department/18A78988-6861-19F3-57C2-8B9729D89F91"}</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -3178,27 +3370,27 @@
         <v>1</v>
       </c>
       <c r="B87" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>FDDE674D-6B8B-1131-89C2-E5E1D3D319E8</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>6EE0B022-420A-A249-4F3E-35E9E4EF686B</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>FDDE674D-6B8B-1131-89C2-E5E1D3D319E8</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>6EE0B022-420A-A249-4F3E-35E9E4EF686B</v>
       </c>
       <c r="H87" t="str">
         <f ca="1">B85</f>
-        <v>789B33DD-6E3A-65CD-198D-CB8647822979</v>
+        <v>18A78988-6861-19F3-57C2-8B9729D89F91</v>
       </c>
       <c r="L87" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"FDDE674D-6B8B-1131-89C2-E5E1D3D319E8","tenant":"1","name":"Marketing Enterprise Products China","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"6EE0B022-420A-A249-4F3E-35E9E4EF686B","tenant":"1","name":"Marketing Enterprise Products China","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U87" t="str">
-        <f ca="1">$U$1&amp;G87&amp;$V$1&amp;H87&amp;$W$1</f>
-        <v>{"_from":"department/FDDE674D-6B8B-1131-89C2-E5E1D3D319E8","_to":"department/789B33DD-6E3A-65CD-198D-CB8647822979"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/6EE0B022-420A-A249-4F3E-35E9E4EF686B","_to":"department/18A78988-6861-19F3-57C2-8B9729D89F91"}</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
@@ -3206,27 +3398,27 @@
         <v>1</v>
       </c>
       <c r="B88" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>54C70AB5-64AD-7699-676B-B629736146AD</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1D560B68-7749-670B-6525-B09B96D7162B</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>54C70AB5-64AD-7699-676B-B629736146AD</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1D560B68-7749-670B-6525-B09B96D7162B</v>
       </c>
       <c r="H88" t="str">
         <f ca="1">B85</f>
-        <v>789B33DD-6E3A-65CD-198D-CB8647822979</v>
+        <v>18A78988-6861-19F3-57C2-8B9729D89F91</v>
       </c>
       <c r="L88" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"54C70AB5-64AD-7699-676B-B629736146AD","tenant":"1","name":"Marketing Enterprise Products Australia","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"1D560B68-7749-670B-6525-B09B96D7162B","tenant":"1","name":"Marketing Enterprise Products Australia","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U88" t="str">
-        <f ca="1">$U$1&amp;G88&amp;$V$1&amp;H88&amp;$W$1</f>
-        <v>{"_from":"department/54C70AB5-64AD-7699-676B-B629736146AD","_to":"department/789B33DD-6E3A-65CD-198D-CB8647822979"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/1D560B68-7749-670B-6525-B09B96D7162B","_to":"department/18A78988-6861-19F3-57C2-8B9729D89F91"}</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -3234,27 +3426,27 @@
         <v>1</v>
       </c>
       <c r="B89" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>7A87ABB3-6271-A103-832D-ABC67D496C31</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>97B065BF-9AB1-7C3A-7F02-238563147F9A</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>7A87ABB3-6271-A103-832D-ABC67D496C31</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>97B065BF-9AB1-7C3A-7F02-238563147F9A</v>
       </c>
       <c r="H89" t="str">
         <f ca="1">B27</f>
-        <v>F38D09C0-A0F4-9265-75AF-5B9AF0862DDB</v>
+        <v>AA2B8E47-32B8-6F7A-579E-1CBE633424FA</v>
       </c>
       <c r="L89" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"7A87ABB3-6271-A103-832D-ABC67D496C31","tenant":"1","name":"Marketing Enterprise Products North America","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"97B065BF-9AB1-7C3A-7F02-238563147F9A","tenant":"1","name":"Marketing Enterprise Products North America","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U89" t="str">
-        <f ca="1">$U$1&amp;G89&amp;$V$1&amp;H89&amp;$W$1</f>
-        <v>{"_from":"department/7A87ABB3-6271-A103-832D-ABC67D496C31","_to":"department/F38D09C0-A0F4-9265-75AF-5B9AF0862DDB"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/97B065BF-9AB1-7C3A-7F02-238563147F9A","_to":"department/AA2B8E47-32B8-6F7A-579E-1CBE633424FA"}</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
@@ -3262,27 +3454,27 @@
         <v>1</v>
       </c>
       <c r="B90" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>B43A378D-284C-A6AE-5D72-104E491D1AFB</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>A9E82842-1425-A66B-53AC-26B796AE3360</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>B43A378D-284C-A6AE-5D72-104E491D1AFB</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>A9E82842-1425-A66B-53AC-26B796AE3360</v>
       </c>
       <c r="H90" t="str">
         <f ca="1">B89</f>
-        <v>7A87ABB3-6271-A103-832D-ABC67D496C31</v>
+        <v>97B065BF-9AB1-7C3A-7F02-238563147F9A</v>
       </c>
       <c r="L90" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"B43A378D-284C-A6AE-5D72-104E491D1AFB","tenant":"1","name":"Marketing Enterprise Products USA","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"A9E82842-1425-A66B-53AC-26B796AE3360","tenant":"1","name":"Marketing Enterprise Products USA","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U90" t="str">
-        <f ca="1">$U$1&amp;G90&amp;$V$1&amp;H90&amp;$W$1</f>
-        <v>{"_from":"department/B43A378D-284C-A6AE-5D72-104E491D1AFB","_to":"department/7A87ABB3-6271-A103-832D-ABC67D496C31"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/A9E82842-1425-A66B-53AC-26B796AE3360","_to":"department/97B065BF-9AB1-7C3A-7F02-238563147F9A"}</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
@@ -3290,27 +3482,27 @@
         <v>1</v>
       </c>
       <c r="B91" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>B23E2169-0A13-8D21-258D-778A7E3662E1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>C077C5AD-8F83-8D39-A700-5789BAF36587</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>B23E2169-0A13-8D21-258D-778A7E3662E1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>C077C5AD-8F83-8D39-A700-5789BAF36587</v>
       </c>
       <c r="H91" t="str">
         <f ca="1">B89</f>
-        <v>7A87ABB3-6271-A103-832D-ABC67D496C31</v>
+        <v>97B065BF-9AB1-7C3A-7F02-238563147F9A</v>
       </c>
       <c r="L91" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"B23E2169-0A13-8D21-258D-778A7E3662E1","tenant":"1","name":"Marketing Enterprise Products Canada","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"C077C5AD-8F83-8D39-A700-5789BAF36587","tenant":"1","name":"Marketing Enterprise Products Canada","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U91" t="str">
-        <f ca="1">$U$1&amp;G91&amp;$V$1&amp;H91&amp;$W$1</f>
-        <v>{"_from":"department/B23E2169-0A13-8D21-258D-778A7E3662E1","_to":"department/7A87ABB3-6271-A103-832D-ABC67D496C31"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/C077C5AD-8F83-8D39-A700-5789BAF36587","_to":"department/97B065BF-9AB1-7C3A-7F02-238563147F9A"}</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
@@ -3318,27 +3510,27 @@
         <v>1</v>
       </c>
       <c r="B92" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>D61E0BDA-8735-2941-A04F-6DF863D54051</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3AA5431A-0C43-7B5C-1E45-2EC8982B87A2</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>D61E0BDA-8735-2941-A04F-6DF863D54051</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3AA5431A-0C43-7B5C-1E45-2EC8982B87A2</v>
       </c>
       <c r="H92" t="str">
         <f ca="1">B27</f>
-        <v>F38D09C0-A0F4-9265-75AF-5B9AF0862DDB</v>
+        <v>AA2B8E47-32B8-6F7A-579E-1CBE633424FA</v>
       </c>
       <c r="L92" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"D61E0BDA-8735-2941-A04F-6DF863D54051","tenant":"1","name":"Marketing Enterprise Products South America","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"3AA5431A-0C43-7B5C-1E45-2EC8982B87A2","tenant":"1","name":"Marketing Enterprise Products South America","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U92" t="str">
-        <f ca="1">$U$1&amp;G92&amp;$V$1&amp;H92&amp;$W$1</f>
-        <v>{"_from":"department/D61E0BDA-8735-2941-A04F-6DF863D54051","_to":"department/F38D09C0-A0F4-9265-75AF-5B9AF0862DDB"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/3AA5431A-0C43-7B5C-1E45-2EC8982B87A2","_to":"department/AA2B8E47-32B8-6F7A-579E-1CBE633424FA"}</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -3346,27 +3538,27 @@
         <v>1</v>
       </c>
       <c r="B93" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>651164C4-00A3-23BA-207F-42E9840758F7</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>48D7201A-2BA2-6F70-79ED-BF2A88949DD0</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>651164C4-00A3-23BA-207F-42E9840758F7</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>48D7201A-2BA2-6F70-79ED-BF2A88949DD0</v>
       </c>
       <c r="H93" t="str">
         <f ca="1">B92</f>
-        <v>D61E0BDA-8735-2941-A04F-6DF863D54051</v>
+        <v>3AA5431A-0C43-7B5C-1E45-2EC8982B87A2</v>
       </c>
       <c r="L93" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"651164C4-00A3-23BA-207F-42E9840758F7","tenant":"1","name":"Marketing Enterprise Products Brazil","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"48D7201A-2BA2-6F70-79ED-BF2A88949DD0","tenant":"1","name":"Marketing Enterprise Products Brazil","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U93" t="str">
-        <f ca="1">$U$1&amp;G93&amp;$V$1&amp;H93&amp;$W$1</f>
-        <v>{"_from":"department/651164C4-00A3-23BA-207F-42E9840758F7","_to":"department/D61E0BDA-8735-2941-A04F-6DF863D54051"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/48D7201A-2BA2-6F70-79ED-BF2A88949DD0","_to":"department/3AA5431A-0C43-7B5C-1E45-2EC8982B87A2"}</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
@@ -3374,27 +3566,27 @@
         <v>1</v>
       </c>
       <c r="B94" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>D64ADDB7-5614-85D2-9146-0C8C08564BA2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5992FFF8-752F-5198-8CE0-E9CF46870F80</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>D64ADDB7-5614-85D2-9146-0C8C08564BA2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>5992FFF8-752F-5198-8CE0-E9CF46870F80</v>
       </c>
       <c r="H94" t="str">
         <f ca="1">B92</f>
-        <v>D61E0BDA-8735-2941-A04F-6DF863D54051</v>
+        <v>3AA5431A-0C43-7B5C-1E45-2EC8982B87A2</v>
       </c>
       <c r="L94" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"D64ADDB7-5614-85D2-9146-0C8C08564BA2","tenant":"1","name":"Marketing Enterprise Products Chile","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"5992FFF8-752F-5198-8CE0-E9CF46870F80","tenant":"1","name":"Marketing Enterprise Products Chile","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U94" t="str">
-        <f ca="1">$U$1&amp;G94&amp;$V$1&amp;H94&amp;$W$1</f>
-        <v>{"_from":"department/D64ADDB7-5614-85D2-9146-0C8C08564BA2","_to":"department/D61E0BDA-8735-2941-A04F-6DF863D54051"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/5992FFF8-752F-5198-8CE0-E9CF46870F80","_to":"department/3AA5431A-0C43-7B5C-1E45-2EC8982B87A2"}</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
@@ -3402,27 +3594,27 @@
         <v>1</v>
       </c>
       <c r="B95" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>35660D4E-82E6-8D6E-070C-26CAEE607006</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>90C1A7E6-9755-95CD-5570-568719646C9D</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>35660D4E-82E6-8D6E-070C-26CAEE607006</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>90C1A7E6-9755-95CD-5570-568719646C9D</v>
       </c>
       <c r="H95" t="str">
         <f ca="1">B92</f>
-        <v>D61E0BDA-8735-2941-A04F-6DF863D54051</v>
+        <v>3AA5431A-0C43-7B5C-1E45-2EC8982B87A2</v>
       </c>
       <c r="L95" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>{"_key":"35660D4E-82E6-8D6E-070C-26CAEE607006","tenant":"1","name":"Marketing Enterprise Products Argentina","collaborators":[],"manager":"","addressID":""}</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>{"_key":"90C1A7E6-9755-95CD-5570-568719646C9D","tenant":"1","name":"Marketing Enterprise Products Argentina","collaborators":[],"manager":"","addressID":""}</v>
       </c>
       <c r="U95" t="str">
-        <f ca="1">$U$1&amp;G95&amp;$V$1&amp;H95&amp;$W$1</f>
-        <v>{"_from":"department/35660D4E-82E6-8D6E-070C-26CAEE607006","_to":"department/D61E0BDA-8735-2941-A04F-6DF863D54051"}</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>{"_from":"department/90C1A7E6-9755-95CD-5570-568719646C9D","_to":"department/3AA5431A-0C43-7B5C-1E45-2EC8982B87A2"}</v>
       </c>
     </row>
   </sheetData>
@@ -3433,89 +3625,1025 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" customWidth="1"/>
+    <col min="3" max="5" width="25.42578125" customWidth="1"/>
+    <col min="13" max="13" width="66.85546875" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L1" s="1" t="s">
-        <v>109</v>
-      </c>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>10</v>
+        <v>153</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" t="s">
         <v>8</v>
       </c>
-      <c r="U2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="str">
+        <f t="shared" ref="B3:B19" ca="1" si="0">CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949)))</f>
+        <v>AB03AE3E-2F33-6C85-30C4-E7CB0C3B5A71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" t="str">
+        <f ca="1">$M$1&amp;B3&amp;$N$1&amp;A3&amp;$O$1&amp;C3&amp;$P$1&amp;D3&amp;$Q$1&amp;E3&amp;$R$1</f>
+        <v>{"_key":"AB03AE3E-2F33-6C85-30C4-E7CB0C3B5A71","tenant":"1","name":"Geographical organization","lat":"","lon":""}</v>
+      </c>
+      <c r="S3" t="str">
+        <f>$T$1&amp;F3&amp;$U$1&amp;G3&amp;$V$1</f>
+        <v>{"_from":"location/","_to":"location/"}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C751FEAE-5745-2ACC-95B3-AB8072717B85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" t="str">
+        <f ca="1">B4</f>
+        <v>C751FEAE-5745-2ACC-95B3-AB8072717B85</v>
+      </c>
+      <c r="G4" t="str">
+        <f ca="1">B3</f>
+        <v>AB03AE3E-2F33-6C85-30C4-E7CB0C3B5A71</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M33" ca="1" si="1">$M$1&amp;B4&amp;$N$1&amp;A4&amp;$O$1&amp;C4&amp;$P$1&amp;D4&amp;$Q$1&amp;E4&amp;$R$1</f>
+        <v>{"_key":"C751FEAE-5745-2ACC-95B3-AB8072717B85","tenant":"1","name":"Americas","lat":"","lon":""}</v>
+      </c>
+      <c r="S4" t="str">
+        <f ca="1">$T$1&amp;F4&amp;$U$1&amp;G4&amp;$V$1</f>
+        <v>{"_from":"location/C751FEAE-5745-2ACC-95B3-AB8072717B85","_to":"location/AB03AE3E-2F33-6C85-30C4-E7CB0C3B5A71"}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1C7FD423-0BFC-5C35-8B4D-3BF083435D7D</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:F33" ca="1" si="2">B5</f>
+        <v>1C7FD423-0BFC-5C35-8B4D-3BF083435D7D</v>
+      </c>
+      <c r="G5" t="str">
+        <f ca="1">B4</f>
+        <v>C751FEAE-5745-2ACC-95B3-AB8072717B85</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"1C7FD423-0BFC-5C35-8B4D-3BF083435D7D","tenant":"1","name":"United States of America","lat":"","lon":""}</v>
+      </c>
+      <c r="S5" t="str">
+        <f ca="1">$T$1&amp;F5&amp;$U$1&amp;G5&amp;$V$1</f>
+        <v>{"_from":"location/1C7FD423-0BFC-5C35-8B4D-3BF083435D7D","_to":"location/C751FEAE-5745-2ACC-95B3-AB8072717B85"}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>2DF14093-0CB1-557F-0E5D-297C4576C1A</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2DF14093-0CB1-557F-0E5D-297C4576C1A</v>
+      </c>
+      <c r="G6" t="str">
+        <f ca="1">B4</f>
+        <v>C751FEAE-5745-2ACC-95B3-AB8072717B85</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"2DF14093-0CB1-557F-0E5D-297C4576C1A","tenant":"1","name":"Canada","lat":"","lon":""}</v>
+      </c>
+      <c r="S6" t="str">
+        <f ca="1">$T$1&amp;F6&amp;$U$1&amp;G6&amp;$V$1</f>
+        <v>{"_from":"location/2DF14093-0CB1-557F-0E5D-297C4576C1A","_to":"location/C751FEAE-5745-2ACC-95B3-AB8072717B85"}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>7731C4F9-5597-9C4D-99F6-A2664CB43E52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>7731C4F9-5597-9C4D-99F6-A2664CB43E52</v>
+      </c>
+      <c r="G7" t="str">
+        <f ca="1">B4</f>
+        <v>C751FEAE-5745-2ACC-95B3-AB8072717B85</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"7731C4F9-5597-9C4D-99F6-A2664CB43E52","tenant":"1","name":"Chile","lat":"","lon":""}</v>
+      </c>
+      <c r="S7" t="str">
+        <f ca="1">$T$1&amp;F7&amp;$U$1&amp;G7&amp;$V$1</f>
+        <v>{"_from":"location/7731C4F9-5597-9C4D-99F6-A2664CB43E52","_to":"location/C751FEAE-5745-2ACC-95B3-AB8072717B85"}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>FF512BC0-0286-04C3-84F0-2A5603A0A1D4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>FF512BC0-0286-04C3-84F0-2A5603A0A1D4</v>
+      </c>
+      <c r="G8" t="str">
+        <f ca="1">B4</f>
+        <v>C751FEAE-5745-2ACC-95B3-AB8072717B85</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"FF512BC0-0286-04C3-84F0-2A5603A0A1D4","tenant":"1","name":"Argentina","lat":"","lon":""}</v>
+      </c>
+      <c r="S8" t="str">
+        <f ca="1">$T$1&amp;F8&amp;$U$1&amp;G8&amp;$V$1</f>
+        <v>{"_from":"location/FF512BC0-0286-04C3-84F0-2A5603A0A1D4","_to":"location/C751FEAE-5745-2ACC-95B3-AB8072717B85"}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>E93D8536-963A-1C95-18DA-0639F16F68BE</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>E93D8536-963A-1C95-18DA-0639F16F68BE</v>
+      </c>
+      <c r="G9" t="str">
+        <f ca="1">B4</f>
+        <v>C751FEAE-5745-2ACC-95B3-AB8072717B85</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"E93D8536-963A-1C95-18DA-0639F16F68BE","tenant":"1","name":"Brazil","lat":"","lon":""}</v>
+      </c>
+      <c r="S9" t="str">
+        <f ca="1">$T$1&amp;F9&amp;$U$1&amp;G9&amp;$V$1</f>
+        <v>{"_from":"location/E93D8536-963A-1C95-18DA-0639F16F68BE","_to":"location/C751FEAE-5745-2ACC-95B3-AB8072717B85"}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>07993ADF-30EB-A436-57E9-DB3B1EE5A5D7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>07993ADF-30EB-A436-57E9-DB3B1EE5A5D7</v>
+      </c>
+      <c r="G10" t="str">
+        <f ca="1">B3</f>
+        <v>AB03AE3E-2F33-6C85-30C4-E7CB0C3B5A71</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"07993ADF-30EB-A436-57E9-DB3B1EE5A5D7","tenant":"1","name":"Europe","lat":"","lon":""}</v>
+      </c>
+      <c r="S10" t="str">
+        <f ca="1">$T$1&amp;F10&amp;$U$1&amp;G10&amp;$V$1</f>
+        <v>{"_from":"location/07993ADF-30EB-A436-57E9-DB3B1EE5A5D7","_to":"location/AB03AE3E-2F33-6C85-30C4-E7CB0C3B5A71"}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>E6F9B7D9-153B-6E20-0402-8E01AC2D12CC</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>E6F9B7D9-153B-6E20-0402-8E01AC2D12CC</v>
+      </c>
+      <c r="G11" t="str">
+        <f ca="1">B10</f>
+        <v>07993ADF-30EB-A436-57E9-DB3B1EE5A5D7</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"E6F9B7D9-153B-6E20-0402-8E01AC2D12CC","tenant":"1","name":"United Kingdom","lat":"","lon":""}</v>
+      </c>
+      <c r="S11" t="str">
+        <f ca="1">$T$1&amp;F11&amp;$U$1&amp;G11&amp;$V$1</f>
+        <v>{"_from":"location/E6F9B7D9-153B-6E20-0402-8E01AC2D12CC","_to":"location/07993ADF-30EB-A436-57E9-DB3B1EE5A5D7"}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>5345F24F-444E-9DEB-674E-5213651C41A2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>5345F24F-444E-9DEB-674E-5213651C41A2</v>
+      </c>
+      <c r="G12" t="str">
+        <f ca="1">B10</f>
+        <v>07993ADF-30EB-A436-57E9-DB3B1EE5A5D7</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"5345F24F-444E-9DEB-674E-5213651C41A2","tenant":"1","name":"France","lat":"","lon":""}</v>
+      </c>
+      <c r="S12" t="str">
+        <f ca="1">$T$1&amp;F12&amp;$U$1&amp;G12&amp;$V$1</f>
+        <v>{"_from":"location/5345F24F-444E-9DEB-674E-5213651C41A2","_to":"location/07993ADF-30EB-A436-57E9-DB3B1EE5A5D7"}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>207DA385-6B60-2FE6-5252-D96D64396DF5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>207DA385-6B60-2FE6-5252-D96D64396DF5</v>
+      </c>
+      <c r="G13" t="str">
+        <f ca="1">B10</f>
+        <v>07993ADF-30EB-A436-57E9-DB3B1EE5A5D7</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"207DA385-6B60-2FE6-5252-D96D64396DF5","tenant":"1","name":"Germany","lat":"","lon":""}</v>
+      </c>
+      <c r="S13" t="str">
+        <f ca="1">$T$1&amp;F13&amp;$U$1&amp;G13&amp;$V$1</f>
+        <v>{"_from":"location/207DA385-6B60-2FE6-5252-D96D64396DF5","_to":"location/07993ADF-30EB-A436-57E9-DB3B1EE5A5D7"}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>39045D67-888F-51DE-2314-556B33D5966C</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" ref="F14" ca="1" si="3">B14</f>
+        <v>39045D67-888F-51DE-2314-556B33D5966C</v>
+      </c>
+      <c r="G14" t="str">
+        <f ca="1">B10</f>
+        <v>07993ADF-30EB-A436-57E9-DB3B1EE5A5D7</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"39045D67-888F-51DE-2314-556B33D5966C","tenant":"1","name":"Benelux","lat":"","lon":""}</v>
+      </c>
+      <c r="S14" t="str">
+        <f ca="1">$T$1&amp;F14&amp;$U$1&amp;G14&amp;$V$1</f>
+        <v>{"_from":"location/39045D67-888F-51DE-2314-556B33D5966C","_to":"location/07993ADF-30EB-A436-57E9-DB3B1EE5A5D7"}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>D70195D0-2488-00DE-A1A4-4FECBE724A11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>D70195D0-2488-00DE-A1A4-4FECBE724A11</v>
+      </c>
+      <c r="G15" t="str">
+        <f ca="1">B10</f>
+        <v>07993ADF-30EB-A436-57E9-DB3B1EE5A5D7</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"D70195D0-2488-00DE-A1A4-4FECBE724A11","tenant":"1","name":"Italy","lat":"","lon":""}</v>
+      </c>
+      <c r="S15" t="str">
+        <f ca="1">$T$1&amp;F15&amp;$U$1&amp;G15&amp;$V$1</f>
+        <v>{"_from":"location/D70195D0-2488-00DE-A1A4-4FECBE724A11","_to":"location/07993ADF-30EB-A436-57E9-DB3B1EE5A5D7"}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0602B022-261A-0EC7-9E0F-3D2299C27163</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>0602B022-261A-0EC7-9E0F-3D2299C27163</v>
+      </c>
+      <c r="G16" t="str">
+        <f ca="1">B3</f>
+        <v>AB03AE3E-2F33-6C85-30C4-E7CB0C3B5A71</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"0602B022-261A-0EC7-9E0F-3D2299C27163","tenant":"1","name":"Asia","lat":"","lon":""}</v>
+      </c>
+      <c r="S16" t="str">
+        <f ca="1">$T$1&amp;F16&amp;$U$1&amp;G16&amp;$V$1</f>
+        <v>{"_from":"location/0602B022-261A-0EC7-9E0F-3D2299C27163","_to":"location/AB03AE3E-2F33-6C85-30C4-E7CB0C3B5A71"}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>B3CB7E80-7EF1-0E3C-1821-E39E26A33625</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>B3CB7E80-7EF1-0E3C-1821-E39E26A33625</v>
+      </c>
+      <c r="G17" t="str">
+        <f ca="1">B16</f>
+        <v>0602B022-261A-0EC7-9E0F-3D2299C27163</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"B3CB7E80-7EF1-0E3C-1821-E39E26A33625","tenant":"1","name":"Japan","lat":"","lon":""}</v>
+      </c>
+      <c r="S17" t="str">
+        <f ca="1">$T$1&amp;F17&amp;$U$1&amp;G17&amp;$V$1</f>
+        <v>{"_from":"location/B3CB7E80-7EF1-0E3C-1821-E39E26A33625","_to":"location/0602B022-261A-0EC7-9E0F-3D2299C27163"}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3300B3B8-6CDF-5D0D-6D21-D5B5333013B1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>3300B3B8-6CDF-5D0D-6D21-D5B5333013B1</v>
+      </c>
+      <c r="G18" t="str">
+        <f ca="1">B16</f>
+        <v>0602B022-261A-0EC7-9E0F-3D2299C27163</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"3300B3B8-6CDF-5D0D-6D21-D5B5333013B1","tenant":"1","name":"China","lat":"","lon":""}</v>
+      </c>
+      <c r="S18" t="str">
+        <f ca="1">$T$1&amp;F18&amp;$U$1&amp;G18&amp;$V$1</f>
+        <v>{"_from":"location/3300B3B8-6CDF-5D0D-6D21-D5B5333013B1","_to":"location/0602B022-261A-0EC7-9E0F-3D2299C27163"}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0C6358FF-75D9-72C9-9FED-03E552FF1EB1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>0C6358FF-75D9-72C9-9FED-03E552FF1EB1</v>
+      </c>
+      <c r="G19" t="str">
+        <f ca="1">B16</f>
+        <v>0602B022-261A-0EC7-9E0F-3D2299C27163</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"0C6358FF-75D9-72C9-9FED-03E552FF1EB1","tenant":"1","name":"Australia","lat":"","lon":""}</v>
+      </c>
+      <c r="S19" t="str">
+        <f ca="1">$T$1&amp;F19&amp;$U$1&amp;G19&amp;$V$1</f>
+        <v>{"_from":"location/0C6358FF-75D9-72C9-9FED-03E552FF1EB1","_to":"location/0602B022-261A-0EC7-9E0F-3D2299C27163"}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="str">
         <f ca="1">CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949)))</f>
-        <v>713F01C8-7AE2-771F-14E4-9C7206C3A3CF</v>
-      </c>
-      <c r="L3" t="str">
-        <f ca="1">$L$1&amp;B3&amp;$M$1&amp;A3&amp;$N$1&amp;C3&amp;$O$1&amp;D3&amp;$P$1&amp;E3&amp;$Q$1&amp;F3&amp;$R$1</f>
-        <v>{"_key":"713F01C8-7AE2-771F-14E4-9C7206C3A3CF","tenant":"1","name":"","addressID":""}</v>
-      </c>
-      <c r="U3" t="str">
-        <f>$S$1&amp;G3&amp;$T$1&amp;H3&amp;$U$1</f>
-        <v>{"_from":,"_to":}</v>
+        <v>11103EF7-5B42-5DAC-A77B-A6D956DC645F</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>11103EF7-5B42-5DAC-A77B-A6D956DC645F</v>
+      </c>
+      <c r="G20" t="str">
+        <f ca="1">B5</f>
+        <v>1C7FD423-0BFC-5C35-8B4D-3BF083435D7D</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"11103EF7-5B42-5DAC-A77B-A6D956DC645F","tenant":"1","name":"San Francisco","lat":"37.790067","lon":"-122.400206"}</v>
+      </c>
+      <c r="S20" t="str">
+        <f ca="1">$T$1&amp;F20&amp;$U$1&amp;G20&amp;$V$1</f>
+        <v>{"_from":"location/11103EF7-5B42-5DAC-A77B-A6D956DC645F","_to":"location/1C7FD423-0BFC-5C35-8B4D-3BF083435D7D"}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" ref="B21:B33" ca="1" si="4">CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949)))</f>
+        <v>7DCD1653-0D02-89EF-7BA0-46E0F0CE1740</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>7DCD1653-0D02-89EF-7BA0-46E0F0CE1740</v>
+      </c>
+      <c r="G21" t="str">
+        <f ca="1">B5</f>
+        <v>1C7FD423-0BFC-5C35-8B4D-3BF083435D7D</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"7DCD1653-0D02-89EF-7BA0-46E0F0CE1740","tenant":"1","name":"New York","lat":"40.765073","lon":"-73.991621"}</v>
+      </c>
+      <c r="S21" t="str">
+        <f ca="1">$T$1&amp;F21&amp;$U$1&amp;G21&amp;$V$1</f>
+        <v>{"_from":"location/7DCD1653-0D02-89EF-7BA0-46E0F0CE1740","_to":"location/1C7FD423-0BFC-5C35-8B4D-3BF083435D7D"}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>25BBC60E-4889-55BB-2936-3F707EFA25FD</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>25BBC60E-4889-55BB-2936-3F707EFA25FD</v>
+      </c>
+      <c r="G22" t="str">
+        <f ca="1">B6</f>
+        <v>2DF14093-0CB1-557F-0E5D-297C4576C1A</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"25BBC60E-4889-55BB-2936-3F707EFA25FD","tenant":"1","name":"Montreal","lat":"45.477404","lon":"-73.600688"}</v>
+      </c>
+      <c r="S22" t="str">
+        <f ca="1">$T$1&amp;F22&amp;$U$1&amp;G22&amp;$V$1</f>
+        <v>{"_from":"location/25BBC60E-4889-55BB-2936-3F707EFA25FD","_to":"location/2DF14093-0CB1-557F-0E5D-297C4576C1A"}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>96C4C9FB-7F99-7FAD-6A96-8EDC6EDA7C5C</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>96C4C9FB-7F99-7FAD-6A96-8EDC6EDA7C5C</v>
+      </c>
+      <c r="G23" t="str">
+        <f ca="1">B9</f>
+        <v>E93D8536-963A-1C95-18DA-0639F16F68BE</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"96C4C9FB-7F99-7FAD-6A96-8EDC6EDA7C5C","tenant":"1","name":"Rio de Janeiro","lat":"-22.967109","lon":"-43.183220"}</v>
+      </c>
+      <c r="S23" t="str">
+        <f ca="1">$T$1&amp;F23&amp;$U$1&amp;G23&amp;$V$1</f>
+        <v>{"_from":"location/96C4C9FB-7F99-7FAD-6A96-8EDC6EDA7C5C","_to":"location/E93D8536-963A-1C95-18DA-0639F16F68BE"}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>1A1D1E06-3E3F-516B-9B3E-A21BE1CDA426</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1A1D1E06-3E3F-516B-9B3E-A21BE1CDA426</v>
+      </c>
+      <c r="G24" t="str">
+        <f ca="1">B8</f>
+        <v>FF512BC0-0286-04C3-84F0-2A5603A0A1D4</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"1A1D1E06-3E3F-516B-9B3E-A21BE1CDA426","tenant":"1","name":"Buenos Aires","lat":"-34.599002","lon":"-58.378038"}</v>
+      </c>
+      <c r="S24" t="str">
+        <f ca="1">$T$1&amp;F24&amp;$U$1&amp;G24&amp;$V$1</f>
+        <v>{"_from":"location/1A1D1E06-3E3F-516B-9B3E-A21BE1CDA426","_to":"location/FF512BC0-0286-04C3-84F0-2A5603A0A1D4"}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>14786934-430F-70B1-7866-2F9577EB5A21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>14786934-430F-70B1-7866-2F9577EB5A21</v>
+      </c>
+      <c r="G25" t="str">
+        <f ca="1">B7</f>
+        <v>7731C4F9-5597-9C4D-99F6-A2664CB43E52</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"14786934-430F-70B1-7866-2F9577EB5A21","tenant":"1","name":"Santiago","lat":"-33.457596","lon":"-70.668850"}</v>
+      </c>
+      <c r="S25" t="str">
+        <f ca="1">$T$1&amp;F25&amp;$U$1&amp;G25&amp;$V$1</f>
+        <v>{"_from":"location/14786934-430F-70B1-7866-2F9577EB5A21","_to":"location/7731C4F9-5597-9C4D-99F6-A2664CB43E52"}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>A1B5DD91-08E3-8A09-2696-10CB7A277AC1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>A1B5DD91-08E3-8A09-2696-10CB7A277AC1</v>
+      </c>
+      <c r="G26" t="str">
+        <f ca="1">B17</f>
+        <v>B3CB7E80-7EF1-0E3C-1821-E39E26A33625</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"A1B5DD91-08E3-8A09-2696-10CB7A277AC1","tenant":"1","name":"Tokyo","lat":"35.696156","lon":"139.700679"}</v>
+      </c>
+      <c r="S26" t="str">
+        <f ca="1">$T$1&amp;F26&amp;$U$1&amp;G26&amp;$V$1</f>
+        <v>{"_from":"location/A1B5DD91-08E3-8A09-2696-10CB7A277AC1","_to":"location/B3CB7E80-7EF1-0E3C-1821-E39E26A33625"}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>437E5FB5-09A1-49C1-876F-122C6F7D3534</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>437E5FB5-09A1-49C1-876F-122C6F7D3534</v>
+      </c>
+      <c r="G27" t="str">
+        <f ca="1">B18</f>
+        <v>3300B3B8-6CDF-5D0D-6D21-D5B5333013B1</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"437E5FB5-09A1-49C1-876F-122C6F7D3534","tenant":"1","name":"Shanghai","lat":"30.904324","lon":"121.929099"}</v>
+      </c>
+      <c r="S27" t="str">
+        <f ca="1">$T$1&amp;F27&amp;$U$1&amp;G27&amp;$V$1</f>
+        <v>{"_from":"location/437E5FB5-09A1-49C1-876F-122C6F7D3534","_to":"location/3300B3B8-6CDF-5D0D-6D21-D5B5333013B1"}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>54F1F797-6671-1083-851B-A2BFCE634A1F</v>
+      </c>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>54F1F797-6671-1083-851B-A2BFCE634A1F</v>
+      </c>
+      <c r="G28" t="str">
+        <f ca="1">B19</f>
+        <v>0C6358FF-75D9-72C9-9FED-03E552FF1EB1</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"54F1F797-6671-1083-851B-A2BFCE634A1F","tenant":"1","name":"Melbourne","lat":"-37.812657","lon":"144.961574"}</v>
+      </c>
+      <c r="S28" t="str">
+        <f ca="1">$T$1&amp;F28&amp;$U$1&amp;G28&amp;$V$1</f>
+        <v>{"_from":"location/54F1F797-6671-1083-851B-A2BFCE634A1F","_to":"location/0C6358FF-75D9-72C9-9FED-03E552FF1EB1"}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>FA7DCFA2-5D98-48F2-4169-58BD47A86307</v>
+      </c>
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>FA7DCFA2-5D98-48F2-4169-58BD47A86307</v>
+      </c>
+      <c r="G29" t="str">
+        <f ca="1">B11</f>
+        <v>E6F9B7D9-153B-6E20-0402-8E01AC2D12CC</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"FA7DCFA2-5D98-48F2-4169-58BD47A86307","tenant":"1","name":"London","lat":"51.510131","lon":"-0.089871"}</v>
+      </c>
+      <c r="S29" t="str">
+        <f ca="1">$T$1&amp;F29&amp;$U$1&amp;G29&amp;$V$1</f>
+        <v>{"_from":"location/FA7DCFA2-5D98-48F2-4169-58BD47A86307","_to":"location/E6F9B7D9-153B-6E20-0402-8E01AC2D12CC"}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>99CE8272-67B6-24EA-1FC7-00D4056799F3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>99CE8272-67B6-24EA-1FC7-00D4056799F3</v>
+      </c>
+      <c r="G30" t="str">
+        <f ca="1">B12</f>
+        <v>5345F24F-444E-9DEB-674E-5213651C41A2</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"99CE8272-67B6-24EA-1FC7-00D4056799F3","tenant":"1","name":"Paris","lat":"48.876925","lon":"2.329944"}</v>
+      </c>
+      <c r="S30" t="str">
+        <f ca="1">$T$1&amp;F30&amp;$U$1&amp;G30&amp;$V$1</f>
+        <v>{"_from":"location/99CE8272-67B6-24EA-1FC7-00D4056799F3","_to":"location/5345F24F-444E-9DEB-674E-5213651C41A2"}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>B4FFB362-6941-430C-36F0-D8858783123E</v>
+      </c>
+      <c r="C31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>B4FFB362-6941-430C-36F0-D8858783123E</v>
+      </c>
+      <c r="G31" t="str">
+        <f ca="1">B15</f>
+        <v>D70195D0-2488-00DE-A1A4-4FECBE724A11</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"B4FFB362-6941-430C-36F0-D8858783123E","tenant":"1","name":"Amsterdam","lat":"52.343822","lon":"4.912197"}</v>
+      </c>
+      <c r="S31" t="str">
+        <f ca="1">$T$1&amp;F31&amp;$U$1&amp;G31&amp;$V$1</f>
+        <v>{"_from":"location/B4FFB362-6941-430C-36F0-D8858783123E","_to":"location/D70195D0-2488-00DE-A1A4-4FECBE724A11"}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>64B6D46E-5D6C-593C-2B64-5E008B139B99</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>64B6D46E-5D6C-593C-2B64-5E008B139B99</v>
+      </c>
+      <c r="G32" t="str">
+        <f ca="1">B13</f>
+        <v>207DA385-6B60-2FE6-5252-D96D64396DF5</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"64B6D46E-5D6C-593C-2B64-5E008B139B99","tenant":"1","name":"Hamburg","lat":"53.541507","lon":"9.984987"}</v>
+      </c>
+      <c r="S32" t="str">
+        <f ca="1">$T$1&amp;F32&amp;$U$1&amp;G32&amp;$V$1</f>
+        <v>{"_from":"location/64B6D46E-5D6C-593C-2B64-5E008B139B99","_to":"location/207DA385-6B60-2FE6-5252-D96D64396DF5"}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>E0FC6D15-9351-0E32-566F-9407C94DD29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>E0FC6D15-9351-0E32-566F-9407C94DD29</v>
+      </c>
+      <c r="G33" t="str">
+        <f ca="1">B15</f>
+        <v>D70195D0-2488-00DE-A1A4-4FECBE724A11</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>{"_key":"E0FC6D15-9351-0E32-566F-9407C94DD29","tenant":"1","name":"Rome","lat":"41.895616","lon":"12.482685"}</v>
+      </c>
+      <c r="S33" t="str">
+        <f ca="1">$T$1&amp;F33&amp;$U$1&amp;G33&amp;$V$1</f>
+        <v>{"_from":"location/E0FC6D15-9351-0E32-566F-9407C94DD29","_to":"location/D70195D0-2488-00DE-A1A4-4FECBE724A11"}</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3523,8 +4651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3535,25 +4663,25 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L1" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -3561,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -3573,10 +4701,10 @@
         <v>6</v>
       </c>
       <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" t="s">
         <v>8</v>
-      </c>
-      <c r="T2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -3585,15 +4713,15 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949)))</f>
-        <v>DF2A3B8F-13F9-8104-4812-FDB1A33475AF</v>
+        <v>E790EB44-8AFE-A7B1-12B0-E30F525437A</v>
       </c>
       <c r="L3" t="str">
         <f ca="1">$L$1&amp;B3&amp;$M$1&amp;A3&amp;$N$1&amp;C3&amp;$O$1</f>
-        <v>{"_key":"DF2A3B8F-13F9-8104-4812-FDB1A33475AF","tenant":"1","name":""}</v>
+        <v>{"_key":"E790EB44-8AFE-A7B1-12B0-E30F525437A","tenant":"1","name":""}</v>
       </c>
       <c r="T3" t="str">
         <f>$R$1&amp;G3&amp;$S$1&amp;H3&amp;$T$1</f>
-        <v>{"_from":,"_to":}</v>
+        <v>{"_from":"","_to":""}</v>
       </c>
     </row>
   </sheetData>
@@ -3605,8 +4733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3617,28 +4745,28 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -3646,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -3661,10 +4789,10 @@
         <v>6</v>
       </c>
       <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" t="s">
         <v>8</v>
-      </c>
-      <c r="U2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -3673,15 +4801,15 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949)))</f>
-        <v>8E7B1AF9-9BAA-908C-4470-88A5148E1424</v>
+        <v>9E27C79B-2CA3-4CE8-3DA5-E40DD30624D2</v>
       </c>
       <c r="L3" t="str">
         <f ca="1">$L$1&amp;B3&amp;$M$1&amp;A3&amp;$N$1&amp;C3&amp;$O$1&amp;D3&amp;$P$1&amp;E3&amp;$Q$1&amp;F3&amp;$R$1</f>
-        <v>{"_key":"8E7B1AF9-9BAA-908C-4470-88A5148E1424","tenant":"1","name":"","addressID":""}</v>
+        <v>{"_key":"9E27C79B-2CA3-4CE8-3DA5-E40DD30624D2","tenant":"1","name":"","addressID":""}</v>
       </c>
       <c r="U3" t="str">
         <f>$S$1&amp;G3&amp;$T$1&amp;H3&amp;$U$1</f>
-        <v>{"_from":,"_to":}</v>
+        <v>{"_from":"","_to":""}</v>
       </c>
     </row>
   </sheetData>
@@ -3693,9 +4821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3709,31 +4835,31 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L1" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -3741,16 +4867,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -3759,10 +4885,10 @@
         <v>6</v>
       </c>
       <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" t="s">
         <v>8</v>
-      </c>
-      <c r="U2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -3771,15 +4897,15 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949)))</f>
-        <v>9E3277F3-4733-0FB1-16C4-963373F88678</v>
+        <v>60ACB996-1F3A-1C23-31B7-831B6FFFEE6</v>
       </c>
       <c r="L3" t="str">
         <f ca="1">$L$1&amp;B3&amp;$M$1&amp;A3&amp;$N$1&amp;C3&amp;$O$1&amp;D3&amp;$P$1&amp;E3&amp;$Q$1</f>
-        <v>{"_key":"9E3277F3-4733-0FB1-16C4-963373F88678","tenant":"1","name":"","budget":"","budget_currency":""}</v>
+        <v>{"_key":"60ACB996-1F3A-1C23-31B7-831B6FFFEE6","tenant":"1","name":"","budget":"","budget_currency":""}</v>
       </c>
       <c r="U3" t="str">
         <f>$S$1&amp;G3&amp;$T$1&amp;H3&amp;$U$1</f>
-        <v>{"_from":,"_to":}</v>
+        <v>{"_from":"","_to":""}</v>
       </c>
     </row>
   </sheetData>
